--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK.xlsx
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.3737670526783385</v>
+        <v>-0.005304774766906497</v>
       </c>
       <c r="C2">
-        <v>0.2686019069256841</v>
+        <v>0.002094447127823097</v>
       </c>
       <c r="D2">
-        <v>0.3118872697596288</v>
+        <v>0.004221953670664759</v>
       </c>
       <c r="E2">
-        <v>0.3359562825446729</v>
+        <v>0.004623589306797429</v>
       </c>
       <c r="F2">
-        <v>0.4132187273392281</v>
+        <v>0.00527371901781727</v>
       </c>
       <c r="G2">
-        <v>0.2962696479700944</v>
+        <v>0.004358206171214817</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.4797303419741688</v>
+        <v>-0.5981352122048281</v>
       </c>
       <c r="C3">
-        <v>0.2525458733755496</v>
+        <v>0.3041577681339944</v>
       </c>
       <c r="D3">
-        <v>0.2786418652599464</v>
+        <v>0.2386521632772539</v>
       </c>
       <c r="E3">
-        <v>0.7257931735962138</v>
+        <v>0.7059592093593674</v>
       </c>
       <c r="F3">
-        <v>0.5517678105104482</v>
+        <v>0.4439153514454169</v>
       </c>
       <c r="G3">
-        <v>0.1794047429476849</v>
+        <v>0.4880044708933596</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.5740574394728805</v>
+        <v>-0.6421220131348907</v>
       </c>
       <c r="C4">
-        <v>0.2018652569284913</v>
+        <v>0.4281387247800145</v>
       </c>
       <c r="D4">
-        <v>0.374371522906378</v>
+        <v>0.4868951976192163</v>
       </c>
       <c r="E4">
-        <v>0.7312053131579185</v>
+        <v>0.5825228272266325</v>
       </c>
       <c r="F4">
-        <v>0.2410058959432235</v>
+        <v>0.228635235537325</v>
       </c>
       <c r="G4">
-        <v>0.5061394168076665</v>
+        <v>0.7276358666369133</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.5841094123966236</v>
+        <v>-0.004124270612143557</v>
       </c>
       <c r="C5">
-        <v>0.1072526419605136</v>
+        <v>0.002653447865886782</v>
       </c>
       <c r="D5">
-        <v>0.2984770962151537</v>
+        <v>0.003784998938958463</v>
       </c>
       <c r="E5">
-        <v>0.5652265860046826</v>
+        <v>0.003824319977912901</v>
       </c>
       <c r="F5">
-        <v>0.5230359871176152</v>
+        <v>0.00425549959009055</v>
       </c>
       <c r="G5">
-        <v>0.5822845557954738</v>
+        <v>0.004027335730038176</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.7548079384087438</v>
+        <v>-0.4525307324703882</v>
       </c>
       <c r="C6">
-        <v>0.2797288020193342</v>
+        <v>0.2761146437712307</v>
       </c>
       <c r="D6">
-        <v>0.1643100288752894</v>
+        <v>0.198453228843771</v>
       </c>
       <c r="E6">
-        <v>0.9317791042329714</v>
+        <v>0.5993209984361256</v>
       </c>
       <c r="F6">
-        <v>0.6477079506936533</v>
+        <v>0.4806961789336602</v>
       </c>
       <c r="G6">
-        <v>0.6254864695729759</v>
+        <v>0.3352353291497584</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.4256444023491429</v>
+        <v>-0.3405051708956802</v>
       </c>
       <c r="C7">
-        <v>0.2101499189590998</v>
+        <v>0.2377718723742346</v>
       </c>
       <c r="D7">
-        <v>0.2582182591460291</v>
+        <v>0.2594255469903425</v>
       </c>
       <c r="E7">
-        <v>0.6033385182855793</v>
+        <v>0.3777705872088998</v>
       </c>
       <c r="F7">
-        <v>0.2683538359196758</v>
+        <v>0.3612913632508691</v>
       </c>
       <c r="G7">
-        <v>0.4555622132836076</v>
+        <v>0.3319307995973613</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,22 +558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.005021987836903648</v>
+        <v>-0.003885063337290321</v>
       </c>
       <c r="C8">
-        <v>0.002694501415484333</v>
+        <v>0.002574684497898014</v>
       </c>
       <c r="D8">
-        <v>0.004631284692989919</v>
+        <v>0.003788600039358617</v>
       </c>
       <c r="E8">
-        <v>0.004129755074299887</v>
+        <v>0.003339450362046921</v>
       </c>
       <c r="F8">
-        <v>0.004544196698460589</v>
+        <v>0.004357426373063436</v>
       </c>
       <c r="G8">
-        <v>0.004368328232761252</v>
+        <v>0.003884906251282002</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -581,22 +581,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.3630877955753851</v>
+        <v>-0.2007381371978769</v>
       </c>
       <c r="C9">
-        <v>0.2662756343345736</v>
+        <v>0.1005057329595723</v>
       </c>
       <c r="D9">
-        <v>0.2459600479011249</v>
+        <v>0.1628665309539958</v>
       </c>
       <c r="E9">
-        <v>0.3801929651986922</v>
+        <v>0.2136882782079059</v>
       </c>
       <c r="F9">
-        <v>0.2261467980009961</v>
+        <v>0.218904534964685</v>
       </c>
       <c r="G9">
-        <v>0.4607385397424759</v>
+        <v>0.1791068235754324</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -604,22 +604,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.211598504854682</v>
+        <v>-0.5799027646785002</v>
       </c>
       <c r="C10">
-        <v>0.1197126388564977</v>
+        <v>0.2704561260113749</v>
       </c>
       <c r="D10">
-        <v>0.1823028383546369</v>
+        <v>0.3347555538154066</v>
       </c>
       <c r="E10">
-        <v>0.2399950949647205</v>
+        <v>0.5563861923532645</v>
       </c>
       <c r="F10">
-        <v>0.2009582922082221</v>
+        <v>0.4318499457864625</v>
       </c>
       <c r="G10">
-        <v>0.1689163080366615</v>
+        <v>0.709781206156697</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -627,22 +627,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.5252665740877217</v>
+        <v>-0.004302724196321767</v>
       </c>
       <c r="C11">
-        <v>0.05218301482221644</v>
+        <v>0.002469686851553154</v>
       </c>
       <c r="D11">
-        <v>0.2298695941993078</v>
+        <v>0.003877740685578385</v>
       </c>
       <c r="E11">
-        <v>0.5845937404102939</v>
+        <v>0.004188686949506026</v>
       </c>
       <c r="F11">
-        <v>0.4788390656733466</v>
+        <v>0.003844337880770178</v>
       </c>
       <c r="G11">
-        <v>0.7333367630493327</v>
+        <v>0.004444129595633945</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -650,22 +650,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.5512603154002536</v>
+        <v>-0.5655395200358855</v>
       </c>
       <c r="C12">
-        <v>0.261460173412403</v>
+        <v>0.3420554511034178</v>
       </c>
       <c r="D12">
-        <v>0.2590155409925329</v>
+        <v>0.3709050666710002</v>
       </c>
       <c r="E12">
-        <v>0.6343890332484261</v>
+        <v>0.6455381342614019</v>
       </c>
       <c r="F12">
-        <v>0.4009482412124873</v>
+        <v>0.4056196306333545</v>
       </c>
       <c r="G12">
-        <v>0.6250091247805857</v>
+        <v>0.398102773000393</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -673,22 +673,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.5518487885084795</v>
+        <v>-0.4521226525113295</v>
       </c>
       <c r="C13">
-        <v>0.1101639928882102</v>
+        <v>0.2831814157197217</v>
       </c>
       <c r="D13">
-        <v>0.2940380941386137</v>
+        <v>0.1016412192282662</v>
       </c>
       <c r="E13">
-        <v>0.5851662620043662</v>
+        <v>0.7787107664195313</v>
       </c>
       <c r="F13">
-        <v>0.3215767604090672</v>
+        <v>0.2794516078348291</v>
       </c>
       <c r="G13">
-        <v>0.7811258599132097</v>
+        <v>0.5461225620255259</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -696,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.3970573687245851</v>
+        <v>-0.2044432637804864</v>
       </c>
       <c r="C14">
-        <v>0.2252989706466222</v>
+        <v>0.0865744783877529</v>
       </c>
       <c r="D14">
-        <v>0.1901927963758652</v>
+        <v>0.1787070219429936</v>
       </c>
       <c r="E14">
-        <v>0.470014867552224</v>
+        <v>0.2063032502060468</v>
       </c>
       <c r="F14">
-        <v>0.3505544545496712</v>
+        <v>0.2176085087779195</v>
       </c>
       <c r="G14">
-        <v>0.3916250081829412</v>
+        <v>0.1877846711128512</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -719,22 +719,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.7143326116498478</v>
+        <v>-0.004108126692539968</v>
       </c>
       <c r="C15">
-        <v>0.394757833809298</v>
+        <v>0.002677316240201521</v>
       </c>
       <c r="D15">
-        <v>0.2594022909424613</v>
+        <v>0.004001830328975478</v>
       </c>
       <c r="E15">
-        <v>0.7105246293409205</v>
+        <v>0.003704863423213959</v>
       </c>
       <c r="F15">
-        <v>0.3205730662562889</v>
+        <v>0.004215614335922312</v>
       </c>
       <c r="G15">
-        <v>1.050048953304089</v>
+        <v>0.003916030285822897</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -742,22 +742,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.8030901062162911</v>
+        <v>-0.4652769865388331</v>
       </c>
       <c r="C16">
-        <v>0.4186287306869276</v>
+        <v>0.1179406337796763</v>
       </c>
       <c r="D16">
-        <v>-0.05045539209837471</v>
+        <v>0.2855873714660216</v>
       </c>
       <c r="E16">
-        <v>0.7917226251823029</v>
+        <v>0.4744408205789521</v>
       </c>
       <c r="F16">
-        <v>0.8051734815324993</v>
+        <v>0.5302158039095926</v>
       </c>
       <c r="G16">
-        <v>0.7847076476271401</v>
+        <v>0.4129815122396022</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -765,22 +765,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.5970582721264114</v>
+        <v>-0.4793910382175942</v>
       </c>
       <c r="C17">
-        <v>0.2591217394039283</v>
+        <v>0.4217032166354788</v>
       </c>
       <c r="D17">
-        <v>0.1782031335490043</v>
+        <v>0.198993851088146</v>
       </c>
       <c r="E17">
-        <v>0.7553526655877737</v>
+        <v>0.7672198099030291</v>
       </c>
       <c r="F17">
-        <v>0.2766019056255824</v>
+        <v>0.3386294434024216</v>
       </c>
       <c r="G17">
-        <v>0.8744832641030271</v>
+        <v>0.4348906493828943</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -788,22 +788,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.586230179591691</v>
+        <v>-0.003742685614973648</v>
       </c>
       <c r="C18">
-        <v>0.2995585657194466</v>
+        <v>0.00198412851123068</v>
       </c>
       <c r="D18">
-        <v>0.2151812470855115</v>
+        <v>0.003393167315935135</v>
       </c>
       <c r="E18">
-        <v>0.7648398904246994</v>
+        <v>0.00379863173787234</v>
       </c>
       <c r="F18">
-        <v>0.3551699094189483</v>
+        <v>0.004206974178680812</v>
       </c>
       <c r="G18">
-        <v>0.7225859407341143</v>
+        <v>0.004023879416054405</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -811,22 +811,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.003850563841020228</v>
+        <v>-0.5519101001375983</v>
       </c>
       <c r="C19">
-        <v>0.002544897789006133</v>
+        <v>0.466277444684807</v>
       </c>
       <c r="D19">
-        <v>0.003376351583413922</v>
+        <v>-0.1765233323459617</v>
       </c>
       <c r="E19">
-        <v>0.003347984560958373</v>
+        <v>0.6753752033863269</v>
       </c>
       <c r="F19">
-        <v>0.004324265040759112</v>
+        <v>0.609597706463012</v>
       </c>
       <c r="G19">
-        <v>0.004228521346120081</v>
+        <v>0.7674971717838778</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -834,22 +834,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.830307153259717</v>
+        <v>-0.4959777318046402</v>
       </c>
       <c r="C20">
-        <v>0.2229493313342091</v>
+        <v>0.3276644177607409</v>
       </c>
       <c r="D20">
-        <v>0.4144365518832374</v>
+        <v>0.05334757849603115</v>
       </c>
       <c r="E20">
-        <v>1.129685430991325</v>
+        <v>0.8346484449738223</v>
       </c>
       <c r="F20">
-        <v>0.1800330089916041</v>
+        <v>0.4713685947440512</v>
       </c>
       <c r="G20">
-        <v>0.8491711928341795</v>
+        <v>0.3877265735053014</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -857,22 +857,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.7624010526436363</v>
+        <v>-0.2014496427798813</v>
       </c>
       <c r="C21">
-        <v>0.2444311943792423</v>
+        <v>0.09922726739673969</v>
       </c>
       <c r="D21">
-        <v>0.1844485441105963</v>
+        <v>0.1387127547760172</v>
       </c>
       <c r="E21">
-        <v>0.7430072358384174</v>
+        <v>0.2032211332494969</v>
       </c>
       <c r="F21">
-        <v>0.7214635620397218</v>
+        <v>0.2337683053561878</v>
       </c>
       <c r="G21">
-        <v>0.7646968886772592</v>
+        <v>0.2027879097291513</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -880,22 +880,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.4715776763338844</v>
+        <v>-0.6006832971345786</v>
       </c>
       <c r="C22">
-        <v>0.07243911766371133</v>
+        <v>0.2769217299892527</v>
       </c>
       <c r="D22">
-        <v>0.2333706107439409</v>
+        <v>0.2227120110950346</v>
       </c>
       <c r="E22">
-        <v>0.400506524568377</v>
+        <v>0.8891462170280544</v>
       </c>
       <c r="F22">
-        <v>0.5028017852060375</v>
+        <v>0.3806083271290359</v>
       </c>
       <c r="G22">
-        <v>0.7165739704339404</v>
+        <v>0.5868289194015908</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.004027964773737199</v>
+        <v>-0.04609174949189979</v>
       </c>
       <c r="C23">
-        <v>0.002737106675161022</v>
+        <v>0.0247340598460737</v>
       </c>
       <c r="D23">
-        <v>0.003834515675042735</v>
+        <v>0.03539542827999467</v>
       </c>
       <c r="E23">
-        <v>0.004267427759419054</v>
+        <v>0.04151439109875814</v>
       </c>
       <c r="F23">
-        <v>0.004126358379392852</v>
+        <v>0.04452164325169192</v>
       </c>
       <c r="G23">
-        <v>0.003357195713169308</v>
+        <v>0.03848702898126738</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -926,22 +926,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.003480616329204026</v>
+        <v>-0.6201524881447217</v>
       </c>
       <c r="C24">
-        <v>0.00264429709275181</v>
+        <v>0.3041855347452396</v>
       </c>
       <c r="D24">
-        <v>0.003072451788964714</v>
+        <v>0.1235134252757494</v>
       </c>
       <c r="E24">
-        <v>0.003571908362161055</v>
+        <v>0.9719916664316128</v>
       </c>
       <c r="F24">
-        <v>0.00394038522017832</v>
+        <v>0.5399985718376101</v>
       </c>
       <c r="G24">
-        <v>0.003823295701109735</v>
+        <v>0.4079420632024002</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -949,22 +949,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.8373011387521433</v>
+        <v>-0.8257097854177157</v>
       </c>
       <c r="C25">
-        <v>0.41831754533121</v>
+        <v>0.471445626919293</v>
       </c>
       <c r="D25">
-        <v>0.5179026408642423</v>
+        <v>-0.120774389826654</v>
       </c>
       <c r="E25">
-        <v>0.694637640479821</v>
+        <v>0.8277096468362506</v>
       </c>
       <c r="F25">
-        <v>0.4304194418605203</v>
+        <v>0.7538940306229797</v>
       </c>
       <c r="G25">
-        <v>0.8502170512251551</v>
+        <v>0.9321292186329027</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -972,22 +972,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.003965620079058866</v>
+        <v>-0.5269873543622715</v>
       </c>
       <c r="C26">
-        <v>0.002307886874313634</v>
+        <v>0.1857346499522259</v>
       </c>
       <c r="D26">
-        <v>0.003759212509066444</v>
+        <v>0.3913353923056653</v>
       </c>
       <c r="E26">
-        <v>0.004039018353677367</v>
+        <v>0.5306044851511821</v>
       </c>
       <c r="F26">
-        <v>0.004005218132374346</v>
+        <v>0.3080584360596757</v>
       </c>
       <c r="G26">
-        <v>0.003975426282120284</v>
+        <v>0.8130568320380709</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -995,22 +995,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.6754445229312834</v>
+        <v>-0.3531865462836724</v>
       </c>
       <c r="C27">
-        <v>0.2964593677713492</v>
+        <v>0.1491913191845767</v>
       </c>
       <c r="D27">
-        <v>0.5102881733404986</v>
+        <v>0.3588721916583588</v>
       </c>
       <c r="E27">
-        <v>0.6009223424633573</v>
+        <v>0.3932643362728269</v>
       </c>
       <c r="F27">
-        <v>0.4482283472116662</v>
+        <v>0.424606077369429</v>
       </c>
       <c r="G27">
-        <v>0.6934265497459986</v>
+        <v>0.1693749809850614</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1018,22 +1018,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.2145138160539165</v>
+        <v>-0.004196348972980002</v>
       </c>
       <c r="C28">
-        <v>0.06451986588202759</v>
+        <v>0.002515558167071468</v>
       </c>
       <c r="D28">
-        <v>0.1881991926041245</v>
+        <v>0.003953755050495541</v>
       </c>
       <c r="E28">
-        <v>0.2029532701186753</v>
+        <v>0.003912501536828803</v>
       </c>
       <c r="F28">
-        <v>0.2392794458243918</v>
+        <v>0.003970489477866724</v>
       </c>
       <c r="G28">
-        <v>0.1883978969798731</v>
+        <v>0.004303103604460602</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1041,22 +1041,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.4220256204660737</v>
+        <v>-0.6604183550735041</v>
       </c>
       <c r="C29">
-        <v>0.2081298190731053</v>
+        <v>0.2373201840837939</v>
       </c>
       <c r="D29">
-        <v>0.185953375515758</v>
+        <v>0.1217799695084634</v>
       </c>
       <c r="E29">
-        <v>0.4597894217163416</v>
+        <v>0.7430496658485762</v>
       </c>
       <c r="F29">
-        <v>0.3773309680461391</v>
+        <v>0.6042728623633341</v>
       </c>
       <c r="G29">
-        <v>0.4862640376942768</v>
+        <v>0.7338200125851229</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1064,22 +1064,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.004012333793773908</v>
+        <v>-0.5742631183942714</v>
       </c>
       <c r="C30">
-        <v>0.002458681457503767</v>
+        <v>0.1705620550627857</v>
       </c>
       <c r="D30">
-        <v>0.003750429716632565</v>
+        <v>0.3256031568665973</v>
       </c>
       <c r="E30">
-        <v>0.003608489213212557</v>
+        <v>0.46395362412505</v>
       </c>
       <c r="F30">
-        <v>0.004424623916152996</v>
+        <v>0.4487858531481668</v>
       </c>
       <c r="G30">
-        <v>0.003961774826078878</v>
+        <v>0.7571671472980432</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1087,22 +1087,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.5615522519430006</v>
+        <v>-0.7894822910994804</v>
       </c>
       <c r="C31">
-        <v>0.3153617079299086</v>
+        <v>0.2904587119810701</v>
       </c>
       <c r="D31">
-        <v>0.4885271047253998</v>
+        <v>0.06553245945833797</v>
       </c>
       <c r="E31">
-        <v>0.695993414315495</v>
+        <v>1.045950901181808</v>
       </c>
       <c r="F31">
-        <v>0.3867037390939096</v>
+        <v>0.4987348908350406</v>
       </c>
       <c r="G31">
-        <v>0.4916261955283331</v>
+        <v>0.7648557760474438</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1110,22 +1110,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.3655598780794304</v>
+        <v>-0.5756243465625436</v>
       </c>
       <c r="C32">
-        <v>0.2546637517462242</v>
+        <v>0.3523928133187938</v>
       </c>
       <c r="D32">
-        <v>0.179418188294065</v>
+        <v>0.06903570353586537</v>
       </c>
       <c r="E32">
-        <v>0.4597894126744728</v>
+        <v>0.7417273659091052</v>
       </c>
       <c r="F32">
-        <v>0.356911011449882</v>
+        <v>0.3689283532665704</v>
       </c>
       <c r="G32">
-        <v>0.398271710662852</v>
+        <v>0.7877771285219712</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1133,22 +1133,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.004493018460069466</v>
+        <v>-0.9111433961530362</v>
       </c>
       <c r="C33">
-        <v>0.002259036419516727</v>
+        <v>0.6140945336391908</v>
       </c>
       <c r="D33">
-        <v>0.003926132756414857</v>
+        <v>-0.373271772439017</v>
       </c>
       <c r="E33">
-        <v>0.00442772004764255</v>
+        <v>1.248448557323138</v>
       </c>
       <c r="F33">
-        <v>0.004621176295501986</v>
+        <v>0.7047927362337173</v>
       </c>
       <c r="G33">
-        <v>0.003869079387699378</v>
+        <v>0.6975503048231809</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.425690572511874</v>
+        <v>-0.592680552746942</v>
       </c>
       <c r="C34">
-        <v>0.1386590921213779</v>
+        <v>0.2681222160767254</v>
       </c>
       <c r="D34">
-        <v>0.243057417115822</v>
+        <v>0.03665558028047541</v>
       </c>
       <c r="E34">
-        <v>0.4861353986333574</v>
+        <v>0.7592249478769928</v>
       </c>
       <c r="F34">
-        <v>0.4768558749358546</v>
+        <v>0.8808085054975685</v>
       </c>
       <c r="G34">
-        <v>0.4104536096603402</v>
+        <v>0.2389273222078103</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.003752489728301071</v>
+        <v>-0.2315122078521053</v>
       </c>
       <c r="C35">
-        <v>0.002342051710778994</v>
+        <v>0.1542976950932925</v>
       </c>
       <c r="D35">
-        <v>0.00337949517607215</v>
+        <v>0.1652885440585344</v>
       </c>
       <c r="E35">
-        <v>0.003376176708837976</v>
+        <v>0.2360532798276653</v>
       </c>
       <c r="F35">
-        <v>0.003971376271649321</v>
+        <v>0.2089021701768753</v>
       </c>
       <c r="G35">
-        <v>0.004463899329096438</v>
+        <v>0.1966783887500716</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.4883367652700293</v>
+        <v>-0.2212810235482344</v>
       </c>
       <c r="C36">
-        <v>0.3266794250324251</v>
+        <v>0.07211343914332675</v>
       </c>
       <c r="D36">
-        <v>-0.05127145150685737</v>
+        <v>0.1886897976307379</v>
       </c>
       <c r="E36">
-        <v>0.7989524356694806</v>
+        <v>0.1833622626057855</v>
       </c>
       <c r="F36">
-        <v>0.4643652175413615</v>
+        <v>0.229627493200403</v>
       </c>
       <c r="G36">
-        <v>0.5689427107778573</v>
+        <v>0.2267196258250681</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1225,22 +1225,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.003636701322605846</v>
+        <v>-0.4998132626939106</v>
       </c>
       <c r="C37">
-        <v>0.002607691987594864</v>
+        <v>0.1155840189409976</v>
       </c>
       <c r="D37">
-        <v>0.003505965436754891</v>
+        <v>0.3645114899488646</v>
       </c>
       <c r="E37">
-        <v>0.003365134570156951</v>
+        <v>0.4715305101925464</v>
       </c>
       <c r="F37">
-        <v>0.00396281882069371</v>
+        <v>0.4257520078759422</v>
       </c>
       <c r="G37">
-        <v>0.003984984198825124</v>
+        <v>0.5350313920017096</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1248,22 +1248,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.5623700789246152</v>
+        <v>-0.4109486348280874</v>
       </c>
       <c r="C38">
-        <v>0.3056828240344616</v>
+        <v>0.2371636567527899</v>
       </c>
       <c r="D38">
-        <v>0.1237453335514882</v>
+        <v>0.3339467977917975</v>
       </c>
       <c r="E38">
-        <v>0.7007704245327916</v>
+        <v>0.5481821642340136</v>
       </c>
       <c r="F38">
-        <v>0.3160395339142658</v>
+        <v>0.3322017730458763</v>
       </c>
       <c r="G38">
-        <v>0.8260868483863261</v>
+        <v>0.5058434945311679</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1271,22 +1271,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.5108729772745372</v>
+        <v>-0.00468750606417145</v>
       </c>
       <c r="C39">
-        <v>0.2482609489075165</v>
+        <v>0.002919373864708262</v>
       </c>
       <c r="D39">
-        <v>0.2314539671940005</v>
+        <v>0.003511429638239918</v>
       </c>
       <c r="E39">
-        <v>0.6175248384279337</v>
+        <v>0.003847645243568456</v>
       </c>
       <c r="F39">
-        <v>0.4412949219422207</v>
+        <v>0.004748520724887641</v>
       </c>
       <c r="G39">
-        <v>0.4208812285374574</v>
+        <v>0.004658414004906763</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1294,22 +1294,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.00420965910201514</v>
+        <v>-0.7233411448975807</v>
       </c>
       <c r="C40">
-        <v>0.002501580282612341</v>
+        <v>0.3940239450582192</v>
       </c>
       <c r="D40">
-        <v>0.004012755656634419</v>
+        <v>0.2919405886705698</v>
       </c>
       <c r="E40">
-        <v>0.003484251476916169</v>
+        <v>0.6933448912392743</v>
       </c>
       <c r="F40">
-        <v>0.004315029697027155</v>
+        <v>0.7692900289103287</v>
       </c>
       <c r="G40">
-        <v>0.004317767055873446</v>
+        <v>0.4662714486419365</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1317,22 +1317,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.5123053081960116</v>
+        <v>-0.4415221984995312</v>
       </c>
       <c r="C41">
-        <v>0.2713662474265874</v>
+        <v>0.1855850559784958</v>
       </c>
       <c r="D41">
-        <v>0.364888536296951</v>
+        <v>0.1363414107933869</v>
       </c>
       <c r="E41">
-        <v>0.704610517134777</v>
+        <v>0.5950698342777785</v>
       </c>
       <c r="F41">
-        <v>0.4959695367162352</v>
+        <v>0.5034988952234981</v>
       </c>
       <c r="G41">
-        <v>0.39038749160845</v>
+        <v>0.5051263117142613</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1340,22 +1340,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.6352139629493541</v>
+        <v>-0.8096404824477001</v>
       </c>
       <c r="C42">
-        <v>0.2827500866348931</v>
+        <v>0.5118063141669968</v>
       </c>
       <c r="D42">
-        <v>0.4551539068311634</v>
+        <v>0.01352393223983306</v>
       </c>
       <c r="E42">
-        <v>0.748203585261382</v>
+        <v>1.139046059556617</v>
       </c>
       <c r="F42">
-        <v>0.5327634990952606</v>
+        <v>0.2078784679889707</v>
       </c>
       <c r="G42">
-        <v>0.4349905879526089</v>
+        <v>0.9561239294091043</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1363,22 +1363,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.1519418155534974</v>
+        <v>-0.004666470498026415</v>
       </c>
       <c r="C43">
-        <v>0.09374951710220161</v>
+        <v>0.002525250028365229</v>
       </c>
       <c r="D43">
-        <v>0.1522377234572249</v>
+        <v>0.004412678342611052</v>
       </c>
       <c r="E43">
-        <v>0.185918922611047</v>
+        <v>0.004330050353099794</v>
       </c>
       <c r="F43">
-        <v>0.1759922444878321</v>
+        <v>0.004437834041805719</v>
       </c>
       <c r="G43">
-        <v>0.171694180994973</v>
+        <v>0.003906063515931196</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1386,22 +1386,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.5222993207148701</v>
+        <v>-0.7623991718355293</v>
       </c>
       <c r="C44">
-        <v>0.213787901796112</v>
+        <v>0.3405202289594933</v>
       </c>
       <c r="D44">
-        <v>0.3807243907790273</v>
+        <v>0.2466058641173039</v>
       </c>
       <c r="E44">
-        <v>0.5295744824399233</v>
+        <v>0.6891755155370415</v>
       </c>
       <c r="F44">
-        <v>0.3991249711070421</v>
+        <v>0.794016192245606</v>
       </c>
       <c r="G44">
-        <v>0.6380360365605457</v>
+        <v>0.6367418494646854</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1409,22 +1409,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.5924320157161586</v>
+        <v>-0.7572354132745009</v>
       </c>
       <c r="C45">
-        <v>0.1707507758177971</v>
+        <v>0.210827057466782</v>
       </c>
       <c r="D45">
-        <v>0.1005941999847716</v>
+        <v>0.3788911987559481</v>
       </c>
       <c r="E45">
-        <v>0.8528073398601693</v>
+        <v>0.8183548569849475</v>
       </c>
       <c r="F45">
-        <v>0.5881559825691876</v>
+        <v>0.4292119764732719</v>
       </c>
       <c r="G45">
-        <v>0.6909079242275006</v>
+        <v>0.7311603580562132</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1432,22 +1432,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.2256613352981579</v>
+        <v>-0.003982402036003929</v>
       </c>
       <c r="C46">
-        <v>0.0945932582602944</v>
+        <v>0.002253684972251725</v>
       </c>
       <c r="D46">
-        <v>0.1855016339071143</v>
+        <v>0.003793288717714471</v>
       </c>
       <c r="E46">
-        <v>0.1817652033814035</v>
+        <v>0.003245094563322311</v>
       </c>
       <c r="F46">
-        <v>0.2511905288591487</v>
+        <v>0.004665088325824033</v>
       </c>
       <c r="G46">
-        <v>0.2127253104420078</v>
+        <v>0.004022073534414698</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1455,22 +1455,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.6006181423015589</v>
+        <v>-0.4988523184032824</v>
       </c>
       <c r="C47">
-        <v>0.3439556626909683</v>
+        <v>0.2532497374038049</v>
       </c>
       <c r="D47">
-        <v>-0.1069713575811934</v>
+        <v>0.2115473941288525</v>
       </c>
       <c r="E47">
-        <v>0.7826530311035539</v>
+        <v>0.6501345211196464</v>
       </c>
       <c r="F47">
-        <v>0.4635366446423598</v>
+        <v>0.4297179064947335</v>
       </c>
       <c r="G47">
-        <v>0.8600916558273848</v>
+        <v>0.605915542083475</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1478,22 +1478,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.5722055495343255</v>
+        <v>-0.6805389725630154</v>
       </c>
       <c r="C48">
-        <v>0.40611900762426</v>
+        <v>0.5498758121543988</v>
       </c>
       <c r="D48">
-        <v>0.1196482925699226</v>
+        <v>-0.1061639841592257</v>
       </c>
       <c r="E48">
-        <v>0.6584350961444003</v>
+        <v>0.9306886908130951</v>
       </c>
       <c r="F48">
-        <v>0.5710421454903631</v>
+        <v>0.6187055173220317</v>
       </c>
       <c r="G48">
-        <v>0.5461877780871861</v>
+        <v>0.5972319122811894</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1501,22 +1501,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.00457566645534301</v>
+        <v>-0.004230665605660652</v>
       </c>
       <c r="C49">
-        <v>0.002719812896867316</v>
+        <v>0.002473696714871638</v>
       </c>
       <c r="D49">
-        <v>0.00385111839644069</v>
+        <v>0.003589700895144324</v>
       </c>
       <c r="E49">
-        <v>0.004279322572170449</v>
+        <v>0.004066930895482709</v>
       </c>
       <c r="F49">
-        <v>0.004362820782759356</v>
+        <v>0.004458973896297988</v>
       </c>
       <c r="G49">
-        <v>0.004291885717581175</v>
+        <v>0.004083606519565522</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1524,22 +1524,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.5609930363285894</v>
+        <v>-0.5334066307696532</v>
       </c>
       <c r="C50">
-        <v>0.3053425096289436</v>
+        <v>0.2212434968112844</v>
       </c>
       <c r="D50">
-        <v>0.1244027149440813</v>
+        <v>0.4348798430255805</v>
       </c>
       <c r="E50">
-        <v>0.6730013251947499</v>
+        <v>0.7574786721452077</v>
       </c>
       <c r="F50">
-        <v>0.6239890695101742</v>
+        <v>0.3189236376155805</v>
       </c>
       <c r="G50">
-        <v>0.3867415006391082</v>
+        <v>0.5011938618386466</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1547,22 +1547,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.004587818579113881</v>
+        <v>-0.5170037375315371</v>
       </c>
       <c r="C51">
-        <v>0.002940064119088942</v>
+        <v>0.3340023158570531</v>
       </c>
       <c r="D51">
-        <v>0.004405102365535056</v>
+        <v>0.2670365107245576</v>
       </c>
       <c r="E51">
-        <v>0.004075886998137115</v>
+        <v>0.4874499340142534</v>
       </c>
       <c r="F51">
-        <v>0.004227820555047138</v>
+        <v>0.4904622062952314</v>
       </c>
       <c r="G51">
-        <v>0.003961501001228488</v>
+        <v>0.4618810601752938</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1570,22 +1570,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.1846552508745795</v>
+        <v>-0.7736828961983385</v>
       </c>
       <c r="C52">
-        <v>0.1294744230630167</v>
+        <v>0.2724732026965238</v>
       </c>
       <c r="D52">
-        <v>0.1547383958420435</v>
+        <v>0.03311823359507147</v>
       </c>
       <c r="E52">
-        <v>0.2126651273904664</v>
+        <v>0.7266317750844719</v>
       </c>
       <c r="F52">
-        <v>0.1829627894479513</v>
+        <v>0.6378615051131479</v>
       </c>
       <c r="G52">
-        <v>0.1792284257398289</v>
+        <v>0.9003657880518223</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1593,22 +1593,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.5831467326255672</v>
+        <v>-0.003330747525224025</v>
       </c>
       <c r="C53">
-        <v>0.3872760955717223</v>
+        <v>0.0021654603100207</v>
       </c>
       <c r="D53">
-        <v>0.1635293721931338</v>
+        <v>0.003065560209044275</v>
       </c>
       <c r="E53">
-        <v>0.5531646760596592</v>
+        <v>0.004213545125533582</v>
       </c>
       <c r="F53">
-        <v>0.6887895612771933</v>
+        <v>0.003711533458448115</v>
       </c>
       <c r="G53">
-        <v>0.4677600726443324</v>
+        <v>0.003320880226406009</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1616,22 +1616,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.4716495373626368</v>
+        <v>-0.3987994035072929</v>
       </c>
       <c r="C54">
-        <v>0.2608535156718375</v>
+        <v>0.1555054104832799</v>
       </c>
       <c r="D54">
-        <v>0.1698332261424029</v>
+        <v>0.3087521701869429</v>
       </c>
       <c r="E54">
-        <v>0.4659892654924941</v>
+        <v>0.4184039598725041</v>
       </c>
       <c r="F54">
-        <v>0.8174906823578254</v>
+        <v>0.3539710935292699</v>
       </c>
       <c r="G54">
-        <v>0.2303588952752562</v>
+        <v>0.4171937437414705</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1639,22 +1639,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.4481699780083822</v>
+        <v>-0.003906507485075612</v>
       </c>
       <c r="C55">
-        <v>0.2062924377874973</v>
+        <v>0.002752792597953333</v>
       </c>
       <c r="D55">
-        <v>0.2706717611423815</v>
+        <v>0.003543096296220591</v>
       </c>
       <c r="E55">
-        <v>0.4412309546438035</v>
+        <v>0.003572851260762823</v>
       </c>
       <c r="F55">
-        <v>0.4239461707325969</v>
+        <v>0.004178532735377208</v>
       </c>
       <c r="G55">
-        <v>0.398390852765035</v>
+        <v>0.004031946391090229</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1662,22 +1662,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.6686670316557777</v>
+        <v>-0.004513261571414499</v>
       </c>
       <c r="C56">
-        <v>0.3206393309530705</v>
+        <v>0.002544561149168992</v>
       </c>
       <c r="D56">
-        <v>0.308164169269322</v>
+        <v>0.004131782856653306</v>
       </c>
       <c r="E56">
-        <v>0.6818570854846057</v>
+        <v>0.004186204733691568</v>
       </c>
       <c r="F56">
-        <v>0.7539102245900332</v>
+        <v>0.0043483783724822</v>
       </c>
       <c r="G56">
-        <v>0.3852276536054098</v>
+        <v>0.004116824666369367</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1685,22 +1685,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.5073828012634335</v>
+        <v>-0.5782372153395514</v>
       </c>
       <c r="C57">
-        <v>0.2836589391020788</v>
+        <v>0.4742383160788236</v>
       </c>
       <c r="D57">
-        <v>0.3487875064440722</v>
+        <v>0.168230802936923</v>
       </c>
       <c r="E57">
-        <v>0.4638871492101465</v>
+        <v>0.6930110110968289</v>
       </c>
       <c r="F57">
-        <v>0.5531041496457509</v>
+        <v>0.5046492314261551</v>
       </c>
       <c r="G57">
-        <v>0.5080637683757837</v>
+        <v>0.5537491938064784</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1708,22 +1708,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.6638310386973008</v>
+        <v>-0.5946607795110437</v>
       </c>
       <c r="C58">
-        <v>0.5035547017254804</v>
+        <v>0.4361836034305387</v>
       </c>
       <c r="D58">
-        <v>0.1849420652894928</v>
+        <v>0.159671623371189</v>
       </c>
       <c r="E58">
-        <v>0.7136593509902016</v>
+        <v>0.7553536527955447</v>
       </c>
       <c r="F58">
-        <v>0.5735155187571002</v>
+        <v>0.4173347917475418</v>
       </c>
       <c r="G58">
-        <v>0.4742580809047892</v>
+        <v>0.6568503741931008</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1731,22 +1731,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.5482810882979441</v>
+        <v>-0.6895351748145001</v>
       </c>
       <c r="C59">
-        <v>0.3984188024567049</v>
+        <v>0.4192959373685716</v>
       </c>
       <c r="D59">
-        <v>0.02640764310406015</v>
+        <v>-0.1843888235674072</v>
       </c>
       <c r="E59">
-        <v>0.7941676354395355</v>
+        <v>0.5361341335521762</v>
       </c>
       <c r="F59">
-        <v>0.5140742572974347</v>
+        <v>0.8618459630505253</v>
       </c>
       <c r="G59">
-        <v>0.5495353722728956</v>
+        <v>0.7767722447002712</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1754,22 +1754,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.381477900205195</v>
+        <v>-0.5814262427070739</v>
       </c>
       <c r="C60">
-        <v>0.1691633040531024</v>
+        <v>0.164485037628063</v>
       </c>
       <c r="D60">
-        <v>0.3116634458706512</v>
+        <v>0.2186627533902538</v>
       </c>
       <c r="E60">
-        <v>0.4639248948253227</v>
+        <v>0.644515305843003</v>
       </c>
       <c r="F60">
-        <v>0.3118715743300958</v>
+        <v>0.4814800726803662</v>
       </c>
       <c r="G60">
-        <v>0.3659622061951759</v>
+        <v>0.8064090496242691</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1777,22 +1777,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.00383742918443154</v>
+        <v>-0.2396720548982658</v>
       </c>
       <c r="C61">
-        <v>0.002499715846420509</v>
+        <v>0.1329182341959869</v>
       </c>
       <c r="D61">
-        <v>0.003743244725426324</v>
+        <v>0.2010634154000468</v>
       </c>
       <c r="E61">
-        <v>0.003640058100031875</v>
+        <v>0.2066840403683703</v>
       </c>
       <c r="F61">
-        <v>0.004215543505518073</v>
+        <v>0.2140942689948929</v>
       </c>
       <c r="G61">
-        <v>0.003763621274731212</v>
+        <v>0.2188321354522292</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1800,22 +1800,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.6761682353919144</v>
+        <v>-0.559187481279114</v>
       </c>
       <c r="C62">
-        <v>0.2560485529258568</v>
+        <v>0.3568003481604832</v>
       </c>
       <c r="D62">
-        <v>0.3458490743439872</v>
+        <v>0.1808378979951863</v>
       </c>
       <c r="E62">
-        <v>0.7786387151499318</v>
+        <v>0.6547493374845003</v>
       </c>
       <c r="F62">
-        <v>0.6026112538712172</v>
+        <v>0.440321165057778</v>
       </c>
       <c r="G62">
-        <v>0.4442306979590988</v>
+        <v>0.5067315969100339</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1823,22 +1823,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.5272852093898605</v>
+        <v>-0.184496107292161</v>
       </c>
       <c r="C63">
-        <v>0.2851212509335711</v>
+        <v>0.1270155599845253</v>
       </c>
       <c r="D63">
-        <v>0.2857907898159183</v>
+        <v>0.1353034993384024</v>
       </c>
       <c r="E63">
-        <v>0.7685678708504329</v>
+        <v>0.2123315395178811</v>
       </c>
       <c r="F63">
-        <v>0.4285651825826273</v>
+        <v>0.2065800375565911</v>
       </c>
       <c r="G63">
-        <v>0.5388532663675228</v>
+        <v>0.1836030308405139</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1846,22 +1846,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.003922209743129347</v>
+        <v>-0.004027938947818042</v>
       </c>
       <c r="C64">
-        <v>0.002430078997051979</v>
+        <v>0.002857670987288732</v>
       </c>
       <c r="D64">
-        <v>0.003368219146213159</v>
+        <v>0.003697293088168222</v>
       </c>
       <c r="E64">
-        <v>0.003914990357243769</v>
+        <v>0.003526127101522249</v>
       </c>
       <c r="F64">
-        <v>0.003955731297528744</v>
+        <v>0.00409193761053077</v>
       </c>
       <c r="G64">
-        <v>0.004320801127081937</v>
+        <v>0.004204405451803866</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1869,22 +1869,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.003518462462129431</v>
+        <v>-0.2035952272861494</v>
       </c>
       <c r="C65">
-        <v>0.002114721210257577</v>
+        <v>0.1562697712407522</v>
       </c>
       <c r="D65">
-        <v>0.003543187849107158</v>
+        <v>0.1430852181642307</v>
       </c>
       <c r="E65">
-        <v>0.003379716848289934</v>
+        <v>0.1862413320096883</v>
       </c>
       <c r="F65">
-        <v>0.004212883200884033</v>
+        <v>0.1806953855590289</v>
       </c>
       <c r="G65">
-        <v>0.003713787975844463</v>
+        <v>0.2279996690406805</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1892,22 +1892,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.189751165153615</v>
+        <v>-0.004266205002864363</v>
       </c>
       <c r="C66">
-        <v>0.07957646986831571</v>
+        <v>0.002920432216225023</v>
       </c>
       <c r="D66">
-        <v>0.2036100850148846</v>
+        <v>0.004029477438836132</v>
       </c>
       <c r="E66">
-        <v>0.1967198931741165</v>
+        <v>0.00370305899512406</v>
       </c>
       <c r="F66">
-        <v>0.1818050984557225</v>
+        <v>0.004555108875595386</v>
       </c>
       <c r="G66">
-        <v>0.193689632949076</v>
+        <v>0.003678431083445653</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1915,22 +1915,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.532907345825176</v>
+        <v>-0.7562059805404612</v>
       </c>
       <c r="C67">
-        <v>0.3051848565240264</v>
+        <v>0.3268926590328229</v>
       </c>
       <c r="D67">
-        <v>0.156610289084703</v>
+        <v>0.1100734412174429</v>
       </c>
       <c r="E67">
-        <v>0.7676860753613119</v>
+        <v>0.7250730457776254</v>
       </c>
       <c r="F67">
-        <v>0.2901922757200785</v>
+        <v>0.6514011089277236</v>
       </c>
       <c r="G67">
-        <v>0.715442765336938</v>
+        <v>0.8978843741916871</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1938,22 +1938,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.004395103955258503</v>
+        <v>-0.004686198947934463</v>
       </c>
       <c r="C68">
-        <v>0.002574160727222691</v>
+        <v>0.002907353150916829</v>
       </c>
       <c r="D68">
-        <v>0.004091464531117543</v>
+        <v>0.004089622335046543</v>
       </c>
       <c r="E68">
-        <v>0.004489596395314852</v>
+        <v>0.004331518543526061</v>
       </c>
       <c r="F68">
-        <v>0.003954873176641383</v>
+        <v>0.004327190416251147</v>
       </c>
       <c r="G68">
-        <v>0.003967677379202594</v>
+        <v>0.00414790115679912</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1961,22 +1961,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.1795418401921012</v>
+        <v>-0.5936246178560102</v>
       </c>
       <c r="C69">
-        <v>0.09268508770522273</v>
+        <v>0.2090978808782687</v>
       </c>
       <c r="D69">
-        <v>0.1505315016766723</v>
+        <v>0.3201403094847478</v>
       </c>
       <c r="E69">
-        <v>0.2014041261333031</v>
+        <v>0.7657439003219579</v>
       </c>
       <c r="F69">
-        <v>0.1933406110614773</v>
+        <v>0.5899918590136221</v>
       </c>
       <c r="G69">
-        <v>0.2028256005832328</v>
+        <v>0.4483593442679226</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1984,22 +1984,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.5930194375856132</v>
+        <v>-0.7817661090292128</v>
       </c>
       <c r="C70">
-        <v>0.4499465545433458</v>
+        <v>0.4291949416249943</v>
       </c>
       <c r="D70">
-        <v>0.07051761842536761</v>
+        <v>0.1047032134519188</v>
       </c>
       <c r="E70">
-        <v>0.6690811847887724</v>
+        <v>0.994194126406073</v>
       </c>
       <c r="F70">
-        <v>0.5282819410538386</v>
+        <v>0.5716080172430655</v>
       </c>
       <c r="G70">
-        <v>0.6115279127139259</v>
+        <v>0.6264569742273046</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2007,22 +2007,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.003999701773170806</v>
+        <v>-0.004651262708033205</v>
       </c>
       <c r="C71">
-        <v>0.002572598951846885</v>
+        <v>0.002793202874014454</v>
       </c>
       <c r="D71">
-        <v>0.003460080628644275</v>
+        <v>0.004064354780604873</v>
       </c>
       <c r="E71">
-        <v>0.003644492224328199</v>
+        <v>0.004038794547013883</v>
       </c>
       <c r="F71">
-        <v>0.004289524458033302</v>
+        <v>0.004373003260687332</v>
       </c>
       <c r="G71">
-        <v>0.004231940370682017</v>
+        <v>0.004421666015390949</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2030,22 +2030,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.03846610177857294</v>
+        <v>-0.003314560568400378</v>
       </c>
       <c r="C72">
-        <v>0.0227884224482315</v>
+        <v>0.002255548125014568</v>
       </c>
       <c r="D72">
-        <v>0.03648132169432836</v>
+        <v>0.003475527430339155</v>
       </c>
       <c r="E72">
-        <v>0.03773492873730282</v>
+        <v>0.003045624962701521</v>
       </c>
       <c r="F72">
-        <v>0.03882018557360153</v>
+        <v>0.003864615889069229</v>
       </c>
       <c r="G72">
-        <v>0.03387777910263003</v>
+        <v>0.003892032316742355</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2053,22 +2053,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.4462430661537966</v>
+        <v>-0.003609682446267889</v>
       </c>
       <c r="C73">
-        <v>0.3071441950708345</v>
+        <v>0.002483921065266021</v>
       </c>
       <c r="D73">
-        <v>0.2268750235596868</v>
+        <v>0.003229783714577463</v>
       </c>
       <c r="E73">
-        <v>0.3541437307007132</v>
+        <v>0.003292830827076904</v>
       </c>
       <c r="F73">
-        <v>0.5871207504199303</v>
+        <v>0.004237925879700915</v>
       </c>
       <c r="G73">
-        <v>0.3434892056885244</v>
+        <v>0.004013590869608792</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2076,22 +2076,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.5541034986349074</v>
+        <v>-0.3889170159454047</v>
       </c>
       <c r="C74">
-        <v>0.1182177724583309</v>
+        <v>0.2460069603149483</v>
       </c>
       <c r="D74">
-        <v>0.2468477707326517</v>
+        <v>0.2850765662008979</v>
       </c>
       <c r="E74">
-        <v>0.6339303135897711</v>
+        <v>0.5086497247537807</v>
       </c>
       <c r="F74">
-        <v>0.6066692120879749</v>
+        <v>0.3909238200031194</v>
       </c>
       <c r="G74">
-        <v>0.5570702653425296</v>
+        <v>0.3302663444431092</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2099,22 +2099,22 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.1909268327917539</v>
+        <v>-0.3430702832253486</v>
       </c>
       <c r="C75">
-        <v>0.1232308897803783</v>
+        <v>0.1587012961015075</v>
       </c>
       <c r="D75">
-        <v>0.171449081007834</v>
+        <v>0.2310230054315805</v>
       </c>
       <c r="E75">
-        <v>0.2138076168955692</v>
+        <v>0.4942553567114077</v>
       </c>
       <c r="F75">
-        <v>0.1760430947492463</v>
+        <v>0.3557771307839411</v>
       </c>
       <c r="G75">
-        <v>0.1786275961490942</v>
+        <v>0.3531252087320417</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2122,22 +2122,22 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.6705291018058167</v>
+        <v>-0.530147834360687</v>
       </c>
       <c r="C76">
-        <v>0.3909355913315471</v>
+        <v>0.4131822735022269</v>
       </c>
       <c r="D76">
-        <v>0.2270887333123902</v>
+        <v>0.227607469062683</v>
       </c>
       <c r="E76">
-        <v>0.619839774477001</v>
+        <v>0.5339490775468494</v>
       </c>
       <c r="F76">
-        <v>0.6994903473971203</v>
+        <v>0.4195920585940122</v>
       </c>
       <c r="G76">
-        <v>0.591528146141982</v>
+        <v>0.4508020659548082</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2145,22 +2145,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.2290710453846512</v>
+        <v>-0.00303140771276086</v>
       </c>
       <c r="C77">
-        <v>0.1778856226621182</v>
+        <v>0.001744120227218251</v>
       </c>
       <c r="D77">
-        <v>0.1417074024230499</v>
+        <v>0.003598289840862716</v>
       </c>
       <c r="E77">
-        <v>0.206767418447129</v>
+        <v>0.003868162007083772</v>
       </c>
       <c r="F77">
-        <v>0.2252219818604425</v>
+        <v>0.003467972783721821</v>
       </c>
       <c r="G77">
-        <v>0.2034227616988742</v>
+        <v>0.002942305164565204</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2168,22 +2168,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.6154161847550041</v>
+        <v>-0.004915900185397609</v>
       </c>
       <c r="C78">
-        <v>0.5239298471634809</v>
+        <v>0.002364606073182145</v>
       </c>
       <c r="D78">
-        <v>0.138720957674586</v>
+        <v>0.003995137761148831</v>
       </c>
       <c r="E78">
-        <v>0.8931552237062451</v>
+        <v>0.004557592509831812</v>
       </c>
       <c r="F78">
-        <v>0.3857523461543947</v>
+        <v>0.004897694306149637</v>
       </c>
       <c r="G78">
-        <v>0.5034807947335704</v>
+        <v>0.004182205411170803</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2191,22 +2191,22 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.4341310912775307</v>
+        <v>-0.484589142031173</v>
       </c>
       <c r="C79">
-        <v>0.2669219374011954</v>
+        <v>0.28377701669156</v>
       </c>
       <c r="D79">
-        <v>0.3881461108674238</v>
+        <v>0.2873415821639505</v>
       </c>
       <c r="E79">
-        <v>0.5107528166060544</v>
+        <v>0.5663125249743909</v>
       </c>
       <c r="F79">
-        <v>0.3092093802999508</v>
+        <v>0.490725637190647</v>
       </c>
       <c r="G79">
-        <v>0.2582765811248216</v>
+        <v>0.3454942453235555</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2214,22 +2214,22 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.5832892055789184</v>
+        <v>-0.664053022867918</v>
       </c>
       <c r="C80">
-        <v>0.3721175926036538</v>
+        <v>0.3279837352057172</v>
       </c>
       <c r="D80">
-        <v>0.3802343700874522</v>
+        <v>0.2793904614191322</v>
       </c>
       <c r="E80">
-        <v>0.7066488312470014</v>
+        <v>0.7162474888098276</v>
       </c>
       <c r="F80">
-        <v>0.250836287854306</v>
+        <v>0.4833839253136809</v>
       </c>
       <c r="G80">
-        <v>0.436742853049314</v>
+        <v>0.706344734375962</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2237,22 +2237,22 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.5157819210061423</v>
+        <v>-0.1991169848537573</v>
       </c>
       <c r="C81">
-        <v>0.1547118161514441</v>
+        <v>0.1168473057402867</v>
       </c>
       <c r="D81">
-        <v>0.3478956829129426</v>
+        <v>0.1642429688422001</v>
       </c>
       <c r="E81">
-        <v>0.538725653665357</v>
+        <v>0.1886702407177754</v>
       </c>
       <c r="F81">
-        <v>0.5197899322630358</v>
+        <v>0.1967346226104485</v>
       </c>
       <c r="G81">
-        <v>0.5632536332839385</v>
+        <v>0.2119212768488389</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2260,22 +2260,22 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.547689198079196</v>
+        <v>-0.7890860420699675</v>
       </c>
       <c r="C82">
-        <v>0.3290815682173776</v>
+        <v>0.3399468542612558</v>
       </c>
       <c r="D82">
-        <v>0.3113107619247227</v>
+        <v>0.09680068616230038</v>
       </c>
       <c r="E82">
-        <v>0.5437280700595976</v>
+        <v>0.7635621230687581</v>
       </c>
       <c r="F82">
-        <v>0.5163412665740523</v>
+        <v>0.7736170943401106</v>
       </c>
       <c r="G82">
-        <v>0.4067436319814344</v>
+        <v>0.7728285224257565</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2283,22 +2283,22 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.004051130258850179</v>
+        <v>-0.4884884117380381</v>
       </c>
       <c r="C83">
-        <v>0.002827114900873018</v>
+        <v>0.2067476068884933</v>
       </c>
       <c r="D83">
-        <v>0.003440222747894379</v>
+        <v>0.4097647296635876</v>
       </c>
       <c r="E83">
-        <v>0.00428834541274274</v>
+        <v>0.6375467014364606</v>
       </c>
       <c r="F83">
-        <v>0.004293306991121812</v>
+        <v>0.2535957847716107</v>
       </c>
       <c r="G83">
-        <v>0.003521390759951237</v>
+        <v>0.6109447152057885</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2306,22 +2306,22 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.00427444779512177</v>
+        <v>-0.5256309193395707</v>
       </c>
       <c r="C84">
-        <v>0.002785521367935692</v>
+        <v>0.3430212757950752</v>
       </c>
       <c r="D84">
-        <v>0.003954657391053987</v>
+        <v>0.145848308166732</v>
       </c>
       <c r="E84">
-        <v>0.003458573164995404</v>
+        <v>0.6713006149511801</v>
       </c>
       <c r="F84">
-        <v>0.004381404412992982</v>
+        <v>0.5273565881841804</v>
       </c>
       <c r="G84">
-        <v>0.004278527919086763</v>
+        <v>0.5183213237441896</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2329,22 +2329,22 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.004261471661598429</v>
+        <v>-0.5333635765081827</v>
       </c>
       <c r="C85">
-        <v>0.002548703194150769</v>
+        <v>0.3552499250644556</v>
       </c>
       <c r="D85">
-        <v>0.003912738418003186</v>
+        <v>0.4959696083664101</v>
       </c>
       <c r="E85">
-        <v>0.004075205766942663</v>
+        <v>0.6145243255541064</v>
       </c>
       <c r="F85">
-        <v>0.004234622436699105</v>
+        <v>0.1374054397027697</v>
       </c>
       <c r="G85">
-        <v>0.004035422736652284</v>
+        <v>0.694548236238375</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2352,22 +2352,22 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.4095774184929497</v>
+        <v>-0.1986760499234858</v>
       </c>
       <c r="C86">
-        <v>0.210921181670608</v>
+        <v>0.1371893355143779</v>
       </c>
       <c r="D86">
-        <v>0.2232580423418529</v>
+        <v>0.1543739537726795</v>
       </c>
       <c r="E86">
-        <v>0.4723816559929632</v>
+        <v>0.2191713325325239</v>
       </c>
       <c r="F86">
-        <v>0.4175625965644991</v>
+        <v>0.1969492518572636</v>
       </c>
       <c r="G86">
-        <v>0.3702561504069952</v>
+        <v>0.1761920186911563</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2375,22 +2375,22 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.1956017368546104</v>
+        <v>-0.6403490871153409</v>
       </c>
       <c r="C87">
-        <v>0.1126612887220566</v>
+        <v>0.2996499253988099</v>
       </c>
       <c r="D87">
-        <v>0.1727931166141747</v>
+        <v>0.191380690504537</v>
       </c>
       <c r="E87">
-        <v>0.1896653436656091</v>
+        <v>0.7364313429445447</v>
       </c>
       <c r="F87">
-        <v>0.2150712444131796</v>
+        <v>0.3524299557679735</v>
       </c>
       <c r="G87">
-        <v>0.1851483171542026</v>
+        <v>0.7971477181879615</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2398,22 +2398,22 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.4327911648595988</v>
+        <v>-0.6995322277317534</v>
       </c>
       <c r="C88">
-        <v>0.1628598510396692</v>
+        <v>0.4491255767723112</v>
       </c>
       <c r="D88">
-        <v>0.2646814926857045</v>
+        <v>0.4505133746890768</v>
       </c>
       <c r="E88">
-        <v>0.6229696757384446</v>
+        <v>0.7208650841930729</v>
       </c>
       <c r="F88">
-        <v>0.1698152994850632</v>
+        <v>0.2849647347406442</v>
       </c>
       <c r="G88">
-        <v>0.7115576402191053</v>
+        <v>0.7279090135289354</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2421,22 +2421,22 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.8729513720730524</v>
+        <v>-0.5188674020345566</v>
       </c>
       <c r="C89">
-        <v>0.2754019237863949</v>
+        <v>0.3051673932052071</v>
       </c>
       <c r="D89">
-        <v>0.2359181577008922</v>
+        <v>0.2548329908648567</v>
       </c>
       <c r="E89">
-        <v>0.6928286914400783</v>
+        <v>0.3502942712901643</v>
       </c>
       <c r="F89">
-        <v>0.6293178658944849</v>
+        <v>0.5836274854014037</v>
       </c>
       <c r="G89">
-        <v>1.000100467687179</v>
+        <v>0.7085122295285003</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2444,22 +2444,22 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.592384842677396</v>
+        <v>-0.1874430661994971</v>
       </c>
       <c r="C90">
-        <v>0.4425743443595072</v>
+        <v>0.1216019894485314</v>
       </c>
       <c r="D90">
-        <v>0.2620516347424067</v>
+        <v>0.1780906199476406</v>
       </c>
       <c r="E90">
-        <v>0.9331744959868254</v>
+        <v>0.1737496664613414</v>
       </c>
       <c r="F90">
-        <v>0.2296043851585087</v>
+        <v>0.2043830350185314</v>
       </c>
       <c r="G90">
-        <v>0.6521840733768929</v>
+        <v>0.1852026619246103</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2467,22 +2467,22 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.5108317471086172</v>
+        <v>-0.7297195491371955</v>
       </c>
       <c r="C91">
-        <v>0.2919722278926928</v>
+        <v>0.4023336211161644</v>
       </c>
       <c r="D91">
-        <v>0.2711513839549047</v>
+        <v>0.2635454296305243</v>
       </c>
       <c r="E91">
-        <v>0.5113392418318099</v>
+        <v>0.8403974655202707</v>
       </c>
       <c r="F91">
-        <v>0.5324885916707313</v>
+        <v>0.6403626612424645</v>
       </c>
       <c r="G91">
-        <v>0.3758677752731454</v>
+        <v>0.5750545380246102</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2490,22 +2490,22 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.189577231306178</v>
+        <v>-0.6523015334335903</v>
       </c>
       <c r="C92">
-        <v>0.09714651621677176</v>
+        <v>0.4111523513242475</v>
       </c>
       <c r="D92">
-        <v>0.1396255437726764</v>
+        <v>0.1279939047725429</v>
       </c>
       <c r="E92">
-        <v>0.2036412245153275</v>
+        <v>0.6555603154818551</v>
       </c>
       <c r="F92">
-        <v>0.2162053635731425</v>
+        <v>0.5434760479656445</v>
       </c>
       <c r="G92">
-        <v>0.1990710663238328</v>
+        <v>0.6948896434594345</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2513,22 +2513,22 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.004326244247518171</v>
+        <v>-0.4107828455993968</v>
       </c>
       <c r="C93">
-        <v>0.002238592416358922</v>
+        <v>0.2400584103190845</v>
       </c>
       <c r="D93">
-        <v>0.004286808898142405</v>
+        <v>0.1459781933406751</v>
       </c>
       <c r="E93">
-        <v>0.004114572296223691</v>
+        <v>0.6027237364354586</v>
       </c>
       <c r="F93">
-        <v>0.004258738743060164</v>
+        <v>0.4534688081814278</v>
       </c>
       <c r="G93">
-        <v>0.003909613655503622</v>
+        <v>0.3545895007333581</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2536,22 +2536,22 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.5548552312931084</v>
+        <v>-0.00349422312523135</v>
       </c>
       <c r="C94">
-        <v>0.4273110537611144</v>
+        <v>0.002552664362661758</v>
       </c>
       <c r="D94">
-        <v>-0.06525137755355255</v>
+        <v>0.00309424552783972</v>
       </c>
       <c r="E94">
-        <v>0.8638768703932408</v>
+        <v>0.003500813782754963</v>
       </c>
       <c r="F94">
-        <v>0.4307076063031574</v>
+        <v>0.003914841245846423</v>
       </c>
       <c r="G94">
-        <v>0.6555585671831226</v>
+        <v>0.003992196115371315</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2559,22 +2559,22 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.004156003562734522</v>
+        <v>-0.004319457803170793</v>
       </c>
       <c r="C95">
-        <v>0.002463369452399862</v>
+        <v>0.002437373501437422</v>
       </c>
       <c r="D95">
-        <v>0.003586673336071107</v>
+        <v>0.004163652644037935</v>
       </c>
       <c r="E95">
-        <v>0.004023014278025402</v>
+        <v>0.003820430865670235</v>
       </c>
       <c r="F95">
-        <v>0.004221166397552335</v>
+        <v>0.004199819366086161</v>
       </c>
       <c r="G95">
-        <v>0.004229803410713584</v>
+        <v>0.004250653011077748</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2582,22 +2582,22 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.004194544628879485</v>
+        <v>-0.2355029031912364</v>
       </c>
       <c r="C96">
-        <v>0.003144726340829353</v>
+        <v>0.1369434318954962</v>
       </c>
       <c r="D96">
-        <v>0.003504626204414284</v>
+        <v>0.1662995202368378</v>
       </c>
       <c r="E96">
-        <v>0.004191534364231106</v>
+        <v>0.219880297991678</v>
       </c>
       <c r="F96">
-        <v>0.004268135093370619</v>
+        <v>0.2163193362781282</v>
       </c>
       <c r="G96">
-        <v>0.003680396531047342</v>
+        <v>0.2065780188369416</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2605,22 +2605,22 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.5306222693712066</v>
+        <v>-0.5645948465424969</v>
       </c>
       <c r="C97">
-        <v>0.2786865443568604</v>
+        <v>0.3938701443753064</v>
       </c>
       <c r="D97">
-        <v>0.363350550852596</v>
+        <v>0.1604062729348269</v>
       </c>
       <c r="E97">
-        <v>0.6600184144056354</v>
+        <v>0.8110395194562603</v>
       </c>
       <c r="F97">
-        <v>0.3892704032603986</v>
+        <v>0.4935573685789784</v>
       </c>
       <c r="G97">
-        <v>0.3657238674195825</v>
+        <v>0.4069824298720363</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2628,22 +2628,22 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.003516740896656276</v>
+        <v>-0.5176596392480677</v>
       </c>
       <c r="C98">
-        <v>0.002524882212613805</v>
+        <v>0.3008726872055178</v>
       </c>
       <c r="D98">
-        <v>0.003433172367545734</v>
+        <v>0.1173688231344685</v>
       </c>
       <c r="E98">
-        <v>0.003800990405365652</v>
+        <v>0.7821152402458218</v>
       </c>
       <c r="F98">
-        <v>0.003733481044807036</v>
+        <v>0.437895332464299</v>
       </c>
       <c r="G98">
-        <v>0.003665486309772933</v>
+        <v>0.5107593166159194</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2651,22 +2651,22 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.3780927347774339</v>
+        <v>-0.00473162508306597</v>
       </c>
       <c r="C99">
-        <v>0.1677386734125227</v>
+        <v>0.002323642230329734</v>
       </c>
       <c r="D99">
-        <v>0.159319636436333</v>
+        <v>0.003956742031136148</v>
       </c>
       <c r="E99">
-        <v>0.3403593387047301</v>
+        <v>0.004197972974331242</v>
       </c>
       <c r="F99">
-        <v>0.4340997845748472</v>
+        <v>0.004631575988707856</v>
       </c>
       <c r="G99">
-        <v>0.4213194210216236</v>
+        <v>0.004528278704618401</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2674,22 +2674,22 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.5865432779799326</v>
+        <v>-0.003611275435224075</v>
       </c>
       <c r="C100">
-        <v>0.3694086903969037</v>
+        <v>0.002079777183833327</v>
       </c>
       <c r="D100">
-        <v>0.01182732188001568</v>
+        <v>0.003733380212512086</v>
       </c>
       <c r="E100">
-        <v>0.6706144068889516</v>
+        <v>0.003440515375909873</v>
       </c>
       <c r="F100">
-        <v>0.8090974531363703</v>
+        <v>0.004008385788604008</v>
       </c>
       <c r="G100">
-        <v>0.4396602092801396</v>
+        <v>0.003926732525941786</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2697,22 +2697,22 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.7539493727210237</v>
+        <v>-0.3610270275187921</v>
       </c>
       <c r="C101">
-        <v>0.3544349324292864</v>
+        <v>0.2818284844878775</v>
       </c>
       <c r="D101">
-        <v>0.3573630689002116</v>
+        <v>0.2052023243505197</v>
       </c>
       <c r="E101">
-        <v>0.8431421839830925</v>
+        <v>0.4275757090998242</v>
       </c>
       <c r="F101">
-        <v>0.6080945924916562</v>
+        <v>0.3575190993153159</v>
       </c>
       <c r="G101">
-        <v>0.613302339785635</v>
+        <v>0.3229228219993612</v>
       </c>
     </row>
   </sheetData>

--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK.xlsx
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.005304774766906497</v>
+        <v>-0.6095941331189663</v>
       </c>
       <c r="C2">
-        <v>0.002094447127823097</v>
+        <v>0.4600166505493309</v>
       </c>
       <c r="D2">
-        <v>0.004221953670664759</v>
+        <v>0.0278182712307911</v>
       </c>
       <c r="E2">
-        <v>0.004623589306797429</v>
+        <v>0.895850100997815</v>
       </c>
       <c r="F2">
-        <v>0.00527371901781727</v>
+        <v>0.2028452256951639</v>
       </c>
       <c r="G2">
-        <v>0.004358206171214817</v>
+        <v>0.7556493649462865</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.5981352122048281</v>
+        <v>-0.004516375095516953</v>
       </c>
       <c r="C3">
-        <v>0.3041577681339944</v>
+        <v>0.002737180197243004</v>
       </c>
       <c r="D3">
-        <v>0.2386521632772539</v>
+        <v>0.003659356538899582</v>
       </c>
       <c r="E3">
-        <v>0.7059592093593674</v>
+        <v>0.004525395157866261</v>
       </c>
       <c r="F3">
-        <v>0.4439153514454169</v>
+        <v>0.005112878627571229</v>
       </c>
       <c r="G3">
-        <v>0.4880044708933596</v>
+        <v>0.004471699615420643</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.6421220131348907</v>
+        <v>-0.705494580832191</v>
       </c>
       <c r="C4">
-        <v>0.4281387247800145</v>
+        <v>0.2860379828851682</v>
       </c>
       <c r="D4">
-        <v>0.4868951976192163</v>
+        <v>0.01060483256047467</v>
       </c>
       <c r="E4">
-        <v>0.5825228272266325</v>
+        <v>0.80852437796022</v>
       </c>
       <c r="F4">
-        <v>0.228635235537325</v>
+        <v>0.6878107261096824</v>
       </c>
       <c r="G4">
-        <v>0.7276358666369133</v>
+        <v>0.624829454777142</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.004124270612143557</v>
+        <v>-0.4947881407300859</v>
       </c>
       <c r="C5">
-        <v>0.002653447865886782</v>
+        <v>0.1898664218820394</v>
       </c>
       <c r="D5">
-        <v>0.003784998938958463</v>
+        <v>0.005221171378718567</v>
       </c>
       <c r="E5">
-        <v>0.003824319977912901</v>
+        <v>0.5408421751734102</v>
       </c>
       <c r="F5">
-        <v>0.00425549959009055</v>
+        <v>0.533434954626912</v>
       </c>
       <c r="G5">
-        <v>0.004027335730038176</v>
+        <v>0.6209211696838618</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.4525307324703882</v>
+        <v>-0.004988395916269288</v>
       </c>
       <c r="C6">
-        <v>0.2761146437712307</v>
+        <v>0.003436492031451617</v>
       </c>
       <c r="D6">
-        <v>0.198453228843771</v>
+        <v>0.003956286280599475</v>
       </c>
       <c r="E6">
-        <v>0.5993209984361256</v>
+        <v>0.004789896138042103</v>
       </c>
       <c r="F6">
-        <v>0.4806961789336602</v>
+        <v>0.004752948818286284</v>
       </c>
       <c r="G6">
-        <v>0.3352353291497584</v>
+        <v>0.004871256586026785</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.3405051708956802</v>
+        <v>-0.6690131236448159</v>
       </c>
       <c r="C7">
-        <v>0.2377718723742346</v>
+        <v>0.4372736186102623</v>
       </c>
       <c r="D7">
-        <v>0.2594255469903425</v>
+        <v>0.2473725613634844</v>
       </c>
       <c r="E7">
-        <v>0.3777705872088998</v>
+        <v>0.8531664144272358</v>
       </c>
       <c r="F7">
-        <v>0.3612913632508691</v>
+        <v>0.0907726217365899</v>
       </c>
       <c r="G7">
-        <v>0.3319307995973613</v>
+        <v>1.0377821547291</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,22 +558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.003885063337290321</v>
+        <v>-0.5083679300158406</v>
       </c>
       <c r="C8">
-        <v>0.002574684497898014</v>
+        <v>0.1151543228091561</v>
       </c>
       <c r="D8">
-        <v>0.003788600039358617</v>
+        <v>0.1530782394460933</v>
       </c>
       <c r="E8">
-        <v>0.003339450362046921</v>
+        <v>0.5607102367704082</v>
       </c>
       <c r="F8">
-        <v>0.004357426373063436</v>
+        <v>0.5111678138845622</v>
       </c>
       <c r="G8">
-        <v>0.003884906251282002</v>
+        <v>0.7378194598980268</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -581,22 +581,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.2007381371978769</v>
+        <v>-0.4560732336877537</v>
       </c>
       <c r="C9">
-        <v>0.1005057329595723</v>
+        <v>0.2420822534209432</v>
       </c>
       <c r="D9">
-        <v>0.1628665309539958</v>
+        <v>0.2397050465585454</v>
       </c>
       <c r="E9">
-        <v>0.2136882782079059</v>
+        <v>0.4450732729502048</v>
       </c>
       <c r="F9">
-        <v>0.218904534964685</v>
+        <v>0.4099468580107017</v>
       </c>
       <c r="G9">
-        <v>0.1791068235754324</v>
+        <v>0.4028067528520975</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -604,22 +604,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.5799027646785002</v>
+        <v>-0.2068981252524384</v>
       </c>
       <c r="C10">
-        <v>0.2704561260113749</v>
+        <v>0.1515561452788338</v>
       </c>
       <c r="D10">
-        <v>0.3347555538154066</v>
+        <v>0.1591239854055542</v>
       </c>
       <c r="E10">
-        <v>0.5563861923532645</v>
+        <v>0.2298806129413021</v>
       </c>
       <c r="F10">
-        <v>0.4318499457864625</v>
+        <v>0.1965837655479514</v>
       </c>
       <c r="G10">
-        <v>0.709781206156697</v>
+        <v>0.2082433954394462</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -627,22 +627,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.004302724196321767</v>
+        <v>-0.006152105371019909</v>
       </c>
       <c r="C11">
-        <v>0.002469686851553154</v>
+        <v>0.003252700989682087</v>
       </c>
       <c r="D11">
-        <v>0.003877740685578385</v>
+        <v>0.004868685153337019</v>
       </c>
       <c r="E11">
-        <v>0.004188686949506026</v>
+        <v>0.005094283585653837</v>
       </c>
       <c r="F11">
-        <v>0.003844337880770178</v>
+        <v>0.005507902657390498</v>
       </c>
       <c r="G11">
-        <v>0.004444129595633945</v>
+        <v>0.00535152508995328</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -650,22 +650,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.5655395200358855</v>
+        <v>-0.005326537830936493</v>
       </c>
       <c r="C12">
-        <v>0.3420554511034178</v>
+        <v>0.002328392112507114</v>
       </c>
       <c r="D12">
-        <v>0.3709050666710002</v>
+        <v>0.004256496903742594</v>
       </c>
       <c r="E12">
-        <v>0.6455381342614019</v>
+        <v>0.004681139803410974</v>
       </c>
       <c r="F12">
-        <v>0.4056196306333545</v>
+        <v>0.005175187050645107</v>
       </c>
       <c r="G12">
-        <v>0.398102773000393</v>
+        <v>0.005569195865242283</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -673,22 +673,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.4521226525113295</v>
+        <v>-0.6852581879316877</v>
       </c>
       <c r="C13">
-        <v>0.2831814157197217</v>
+        <v>0.3882990096664952</v>
       </c>
       <c r="D13">
-        <v>0.1016412192282662</v>
+        <v>0.1429574477365344</v>
       </c>
       <c r="E13">
-        <v>0.7787107664195313</v>
+        <v>0.910316563706107</v>
       </c>
       <c r="F13">
-        <v>0.2794516078348291</v>
+        <v>0.3229265762521152</v>
       </c>
       <c r="G13">
-        <v>0.5461225620255259</v>
+        <v>0.8277224768356588</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -696,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.2044432637804864</v>
+        <v>-0.004729992060430678</v>
       </c>
       <c r="C14">
-        <v>0.0865744783877529</v>
+        <v>0.003382097132075935</v>
       </c>
       <c r="D14">
-        <v>0.1787070219429936</v>
+        <v>0.004084648048340628</v>
       </c>
       <c r="E14">
-        <v>0.2063032502060468</v>
+        <v>0.004505247792818787</v>
       </c>
       <c r="F14">
-        <v>0.2176085087779195</v>
+        <v>0.004806737495620135</v>
       </c>
       <c r="G14">
-        <v>0.1877846711128512</v>
+        <v>0.004491748200013151</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -719,22 +719,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.004108126692539968</v>
+        <v>-0.6541498415876271</v>
       </c>
       <c r="C15">
-        <v>0.002677316240201521</v>
+        <v>0.2675503603805732</v>
       </c>
       <c r="D15">
-        <v>0.004001830328975478</v>
+        <v>0.2565375530511481</v>
       </c>
       <c r="E15">
-        <v>0.003704863423213959</v>
+        <v>0.9349259851383277</v>
       </c>
       <c r="F15">
-        <v>0.004215614335922312</v>
+        <v>0.3232972892631344</v>
       </c>
       <c r="G15">
-        <v>0.003916030285822897</v>
+        <v>0.6539700426992681</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -742,22 +742,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.4652769865388331</v>
+        <v>-0.5674660761297442</v>
       </c>
       <c r="C16">
-        <v>0.1179406337796763</v>
+        <v>0.3993575568009711</v>
       </c>
       <c r="D16">
-        <v>0.2855873714660216</v>
+        <v>0.1920022826710756</v>
       </c>
       <c r="E16">
-        <v>0.4744408205789521</v>
+        <v>0.69273506722155</v>
       </c>
       <c r="F16">
-        <v>0.5302158039095926</v>
+        <v>0.427928629293667</v>
       </c>
       <c r="G16">
-        <v>0.4129815122396022</v>
+        <v>0.6445709979155212</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -765,22 +765,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.4793910382175942</v>
+        <v>-0.6894770394186748</v>
       </c>
       <c r="C17">
-        <v>0.4217032166354788</v>
+        <v>0.2524788458699177</v>
       </c>
       <c r="D17">
-        <v>0.198993851088146</v>
+        <v>0.1013693972181254</v>
       </c>
       <c r="E17">
-        <v>0.7672198099030291</v>
+        <v>0.862058202925188</v>
       </c>
       <c r="F17">
-        <v>0.3386294434024216</v>
+        <v>0.5605027472686047</v>
       </c>
       <c r="G17">
-        <v>0.4348906493828943</v>
+        <v>0.634310466643112</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -788,22 +788,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.003742685614973648</v>
+        <v>-0.675177927499207</v>
       </c>
       <c r="C18">
-        <v>0.00198412851123068</v>
+        <v>0.3683976581544396</v>
       </c>
       <c r="D18">
-        <v>0.003393167315935135</v>
+        <v>0.05999631723373273</v>
       </c>
       <c r="E18">
-        <v>0.00379863173787234</v>
+        <v>0.8762446099740372</v>
       </c>
       <c r="F18">
-        <v>0.004206974178680812</v>
+        <v>0.4668863070009765</v>
       </c>
       <c r="G18">
-        <v>0.004023879416054405</v>
+        <v>0.7117116536474338</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -811,22 +811,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.5519101001375983</v>
+        <v>-0.517975734017754</v>
       </c>
       <c r="C19">
-        <v>0.466277444684807</v>
+        <v>0.1644023272119827</v>
       </c>
       <c r="D19">
-        <v>-0.1765233323459617</v>
+        <v>0.3876086157046248</v>
       </c>
       <c r="E19">
-        <v>0.6753752033863269</v>
+        <v>0.5103674256861198</v>
       </c>
       <c r="F19">
-        <v>0.609597706463012</v>
+        <v>0.4382636671359821</v>
       </c>
       <c r="G19">
-        <v>0.7674971717838778</v>
+        <v>0.3869627530111935</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -834,22 +834,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.4959777318046402</v>
+        <v>-0.005293746209286605</v>
       </c>
       <c r="C20">
-        <v>0.3276644177607409</v>
+        <v>0.003299021229442538</v>
       </c>
       <c r="D20">
-        <v>0.05334757849603115</v>
+        <v>0.004466983300743911</v>
       </c>
       <c r="E20">
-        <v>0.8346484449738223</v>
+        <v>0.004855251532372464</v>
       </c>
       <c r="F20">
-        <v>0.4713685947440512</v>
+        <v>0.005220902135542614</v>
       </c>
       <c r="G20">
-        <v>0.3877265735053014</v>
+        <v>0.004579617611165879</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -857,22 +857,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.2014496427798813</v>
+        <v>-0.4050362360979341</v>
       </c>
       <c r="C21">
-        <v>0.09922726739673969</v>
+        <v>0.180934221123889</v>
       </c>
       <c r="D21">
-        <v>0.1387127547760172</v>
+        <v>0.2904493106689651</v>
       </c>
       <c r="E21">
-        <v>0.2032211332494969</v>
+        <v>0.4713939572105106</v>
       </c>
       <c r="F21">
-        <v>0.2337683053561878</v>
+        <v>0.3762076292205616</v>
       </c>
       <c r="G21">
-        <v>0.2027879097291513</v>
+        <v>0.3349621104272303</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -880,22 +880,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.6006832971345786</v>
+        <v>-0.5962035414295107</v>
       </c>
       <c r="C22">
-        <v>0.2769217299892527</v>
+        <v>0.2294175954700526</v>
       </c>
       <c r="D22">
-        <v>0.2227120110950346</v>
+        <v>0.303253839344977</v>
       </c>
       <c r="E22">
-        <v>0.8891462170280544</v>
+        <v>0.6220653595089221</v>
       </c>
       <c r="F22">
-        <v>0.3806083271290359</v>
+        <v>0.5783246124781073</v>
       </c>
       <c r="G22">
-        <v>0.5868289194015908</v>
+        <v>0.4376455863739949</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.04609174949189979</v>
+        <v>-0.9844481173576338</v>
       </c>
       <c r="C23">
-        <v>0.0247340598460737</v>
+        <v>0.3411621146079427</v>
       </c>
       <c r="D23">
-        <v>0.03539542827999467</v>
+        <v>0.1304586300217848</v>
       </c>
       <c r="E23">
-        <v>0.04151439109875814</v>
+        <v>0.8344524465100513</v>
       </c>
       <c r="F23">
-        <v>0.04452164325169192</v>
+        <v>0.9102499496552748</v>
       </c>
       <c r="G23">
-        <v>0.03848702898126738</v>
+        <v>0.787296458583151</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -926,22 +926,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.6201524881447217</v>
+        <v>-0.03626643569685386</v>
       </c>
       <c r="C24">
-        <v>0.3041855347452396</v>
+        <v>0.01968539336177125</v>
       </c>
       <c r="D24">
-        <v>0.1235134252757494</v>
+        <v>0.03460975240201599</v>
       </c>
       <c r="E24">
-        <v>0.9719916664316128</v>
+        <v>0.03724715243853467</v>
       </c>
       <c r="F24">
-        <v>0.5399985718376101</v>
+        <v>0.04231858947138158</v>
       </c>
       <c r="G24">
-        <v>0.4079420632024002</v>
+        <v>0.03950536922862426</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -949,22 +949,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.8257097854177157</v>
+        <v>-0.8775280870454614</v>
       </c>
       <c r="C25">
-        <v>0.471445626919293</v>
+        <v>0.5880078562530248</v>
       </c>
       <c r="D25">
-        <v>-0.120774389826654</v>
+        <v>-0.06101927933767486</v>
       </c>
       <c r="E25">
-        <v>0.8277096468362506</v>
+        <v>0.9278420176275762</v>
       </c>
       <c r="F25">
-        <v>0.7538940306229797</v>
+        <v>0.5965340562411038</v>
       </c>
       <c r="G25">
-        <v>0.9321292186329027</v>
+        <v>0.8189711168366607</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -972,22 +972,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.5269873543622715</v>
+        <v>-0.4549721243909327</v>
       </c>
       <c r="C26">
-        <v>0.1857346499522259</v>
+        <v>0.2544239347225134</v>
       </c>
       <c r="D26">
-        <v>0.3913353923056653</v>
+        <v>0.2427157244990011</v>
       </c>
       <c r="E26">
-        <v>0.5306044851511821</v>
+        <v>0.4510248448813908</v>
       </c>
       <c r="F26">
-        <v>0.3080584360596757</v>
+        <v>0.4273735527710709</v>
       </c>
       <c r="G26">
-        <v>0.8130568320380709</v>
+        <v>0.453148208391938</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -995,22 +995,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.3531865462836724</v>
+        <v>-0.5570624582723722</v>
       </c>
       <c r="C27">
-        <v>0.1491913191845767</v>
+        <v>0.1963399631214998</v>
       </c>
       <c r="D27">
-        <v>0.3588721916583588</v>
+        <v>0.1679647744281695</v>
       </c>
       <c r="E27">
-        <v>0.3932643362728269</v>
+        <v>0.7909550844059372</v>
       </c>
       <c r="F27">
-        <v>0.424606077369429</v>
+        <v>0.4469593297976012</v>
       </c>
       <c r="G27">
-        <v>0.1693749809850614</v>
+        <v>0.5209584850667095</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1018,22 +1018,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.004196348972980002</v>
+        <v>-0.6085569819087759</v>
       </c>
       <c r="C28">
-        <v>0.002515558167071468</v>
+        <v>0.3847854185543178</v>
       </c>
       <c r="D28">
-        <v>0.003953755050495541</v>
+        <v>-0.06420176490026898</v>
       </c>
       <c r="E28">
-        <v>0.003912501536828803</v>
+        <v>0.8130777996259421</v>
       </c>
       <c r="F28">
-        <v>0.003970489477866724</v>
+        <v>0.6459437991128988</v>
       </c>
       <c r="G28">
-        <v>0.004303103604460602</v>
+        <v>0.5146778149406405</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1041,22 +1041,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.6604183550735041</v>
+        <v>-0.7239659729697429</v>
       </c>
       <c r="C29">
-        <v>0.2373201840837939</v>
+        <v>0.02915905592407146</v>
       </c>
       <c r="D29">
-        <v>0.1217799695084634</v>
+        <v>0.1013866233236727</v>
       </c>
       <c r="E29">
-        <v>0.7430496658485762</v>
+        <v>0.8088055256398777</v>
       </c>
       <c r="F29">
-        <v>0.6042728623633341</v>
+        <v>0.6410203214351309</v>
       </c>
       <c r="G29">
-        <v>0.7338200125851229</v>
+        <v>0.8566745690089839</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1064,22 +1064,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.5742631183942714</v>
+        <v>-0.00498833367186929</v>
       </c>
       <c r="C30">
-        <v>0.1705620550627857</v>
+        <v>0.002536887214610759</v>
       </c>
       <c r="D30">
-        <v>0.3256031568665973</v>
+        <v>0.00409181369406308</v>
       </c>
       <c r="E30">
-        <v>0.46395362412505</v>
+        <v>0.004244226488050058</v>
       </c>
       <c r="F30">
-        <v>0.4487858531481668</v>
+        <v>0.00545695843781632</v>
       </c>
       <c r="G30">
-        <v>0.7571671472980432</v>
+        <v>0.005074970236174463</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1087,22 +1087,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.7894822910994804</v>
+        <v>-0.7026974464198597</v>
       </c>
       <c r="C31">
-        <v>0.2904587119810701</v>
+        <v>0.4178566832240542</v>
       </c>
       <c r="D31">
-        <v>0.06553245945833797</v>
+        <v>-0.04057422064602521</v>
       </c>
       <c r="E31">
-        <v>1.045950901181808</v>
+        <v>0.8841364075734683</v>
       </c>
       <c r="F31">
-        <v>0.4987348908350406</v>
+        <v>0.5164078120475657</v>
       </c>
       <c r="G31">
-        <v>0.7648557760474438</v>
+        <v>0.8260149016362929</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1110,22 +1110,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.5756243465625436</v>
+        <v>-0.5126152010410882</v>
       </c>
       <c r="C32">
-        <v>0.3523928133187938</v>
+        <v>0.2626422934744061</v>
       </c>
       <c r="D32">
-        <v>0.06903570353586537</v>
+        <v>0.1952944725060146</v>
       </c>
       <c r="E32">
-        <v>0.7417273659091052</v>
+        <v>0.5357984505627345</v>
       </c>
       <c r="F32">
-        <v>0.3689283532665704</v>
+        <v>0.4273971798339098</v>
       </c>
       <c r="G32">
-        <v>0.7877771285219712</v>
+        <v>0.4967199038576235</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1133,22 +1133,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.9111433961530362</v>
+        <v>-0.004348264019971123</v>
       </c>
       <c r="C33">
-        <v>0.6140945336391908</v>
+        <v>0.003470409696748263</v>
       </c>
       <c r="D33">
-        <v>-0.373271772439017</v>
+        <v>0.003779219128121493</v>
       </c>
       <c r="E33">
-        <v>1.248448557323138</v>
+        <v>0.004306687076616749</v>
       </c>
       <c r="F33">
-        <v>0.7047927362337173</v>
+        <v>0.004492687616498589</v>
       </c>
       <c r="G33">
-        <v>0.6975503048231809</v>
+        <v>0.004388795778316604</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.592680552746942</v>
+        <v>-0.005114940685151995</v>
       </c>
       <c r="C34">
-        <v>0.2681222160767254</v>
+        <v>0.003562635998260474</v>
       </c>
       <c r="D34">
-        <v>0.03665558028047541</v>
+        <v>0.00438306200712478</v>
       </c>
       <c r="E34">
-        <v>0.7592249478769928</v>
+        <v>0.004643061570070411</v>
       </c>
       <c r="F34">
-        <v>0.8808085054975685</v>
+        <v>0.00480562982249882</v>
       </c>
       <c r="G34">
-        <v>0.2389273222078103</v>
+        <v>0.004753834129091866</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.2315122078521053</v>
+        <v>-0.005227785207404302</v>
       </c>
       <c r="C35">
-        <v>0.1542976950932925</v>
+        <v>0.003141807108992866</v>
       </c>
       <c r="D35">
-        <v>0.1652885440585344</v>
+        <v>0.004117962353030996</v>
       </c>
       <c r="E35">
-        <v>0.2360532798276653</v>
+        <v>0.005120376160340424</v>
       </c>
       <c r="F35">
-        <v>0.2089021701768753</v>
+        <v>0.005255065955916266</v>
       </c>
       <c r="G35">
-        <v>0.1966783887500716</v>
+        <v>0.004550607989570924</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.2212810235482344</v>
+        <v>-0.5840605662840845</v>
       </c>
       <c r="C36">
-        <v>0.07211343914332675</v>
+        <v>0.4392807058681509</v>
       </c>
       <c r="D36">
-        <v>0.1886897976307379</v>
+        <v>0.09263637849635058</v>
       </c>
       <c r="E36">
-        <v>0.1833622626057855</v>
+        <v>0.8170501633978612</v>
       </c>
       <c r="F36">
-        <v>0.229627493200403</v>
+        <v>0.3271230513137998</v>
       </c>
       <c r="G36">
-        <v>0.2267196258250681</v>
+        <v>0.668492128675408</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1225,22 +1225,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.4998132626939106</v>
+        <v>-0.6167222499761066</v>
       </c>
       <c r="C37">
-        <v>0.1155840189409976</v>
+        <v>0.3754465852926083</v>
       </c>
       <c r="D37">
-        <v>0.3645114899488646</v>
+        <v>0.06424832711414236</v>
       </c>
       <c r="E37">
-        <v>0.4715305101925464</v>
+        <v>0.8129717775734542</v>
       </c>
       <c r="F37">
-        <v>0.4257520078759422</v>
+        <v>0.6451516676532147</v>
       </c>
       <c r="G37">
-        <v>0.5350313920017096</v>
+        <v>0.2533753530696943</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1248,22 +1248,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.4109486348280874</v>
+        <v>-0.4175133088697048</v>
       </c>
       <c r="C38">
-        <v>0.2371636567527899</v>
+        <v>0.1686636741228011</v>
       </c>
       <c r="D38">
-        <v>0.3339467977917975</v>
+        <v>0.2401802964152528</v>
       </c>
       <c r="E38">
-        <v>0.5481821642340136</v>
+        <v>0.4461466345415721</v>
       </c>
       <c r="F38">
-        <v>0.3322017730458763</v>
+        <v>0.4144648964531105</v>
       </c>
       <c r="G38">
-        <v>0.5058434945311679</v>
+        <v>0.4265707177156897</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1271,22 +1271,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.00468750606417145</v>
+        <v>-0.8874680602005761</v>
       </c>
       <c r="C39">
-        <v>0.002919373864708262</v>
+        <v>0.5949753849028545</v>
       </c>
       <c r="D39">
-        <v>0.003511429638239918</v>
+        <v>0.3941331291690617</v>
       </c>
       <c r="E39">
-        <v>0.003847645243568456</v>
+        <v>1.014632085612938</v>
       </c>
       <c r="F39">
-        <v>0.004748520724887641</v>
+        <v>-0.1374342092599679</v>
       </c>
       <c r="G39">
-        <v>0.004658414004906763</v>
+        <v>1.095162413205654</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1294,22 +1294,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.7233411448975807</v>
+        <v>-0.7447563774817559</v>
       </c>
       <c r="C40">
-        <v>0.3940239450582192</v>
+        <v>0.3026185050871705</v>
       </c>
       <c r="D40">
-        <v>0.2919405886705698</v>
+        <v>0.2921518320941589</v>
       </c>
       <c r="E40">
-        <v>0.6933448912392743</v>
+        <v>1.099596053119694</v>
       </c>
       <c r="F40">
-        <v>0.7692900289103287</v>
+        <v>0.3208714760590448</v>
       </c>
       <c r="G40">
-        <v>0.4662714486419365</v>
+        <v>0.5742844441928883</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1317,22 +1317,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.4415221984995312</v>
+        <v>-0.6564277569394397</v>
       </c>
       <c r="C41">
-        <v>0.1855850559784958</v>
+        <v>0.4119119484278301</v>
       </c>
       <c r="D41">
-        <v>0.1363414107933869</v>
+        <v>0.2507517022029084</v>
       </c>
       <c r="E41">
-        <v>0.5950698342777785</v>
+        <v>0.8759491887790292</v>
       </c>
       <c r="F41">
-        <v>0.5034988952234981</v>
+        <v>0.2669011094996421</v>
       </c>
       <c r="G41">
-        <v>0.5051263117142613</v>
+        <v>0.738468998577104</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1340,22 +1340,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.8096404824477001</v>
+        <v>-0.2229055704915934</v>
       </c>
       <c r="C42">
-        <v>0.5118063141669968</v>
+        <v>0.1267640884292158</v>
       </c>
       <c r="D42">
-        <v>0.01352393223983306</v>
+        <v>0.2029617844422952</v>
       </c>
       <c r="E42">
-        <v>1.139046059556617</v>
+        <v>0.2039204540675123</v>
       </c>
       <c r="F42">
-        <v>0.2078784679889707</v>
+        <v>0.2099056452677764</v>
       </c>
       <c r="G42">
-        <v>0.9561239294091043</v>
+        <v>0.2056247169512564</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1363,22 +1363,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.004666470498026415</v>
+        <v>-0.7224739283101268</v>
       </c>
       <c r="C43">
-        <v>0.002525250028365229</v>
+        <v>0.04379159983803316</v>
       </c>
       <c r="D43">
-        <v>0.004412678342611052</v>
+        <v>0.09269164030082475</v>
       </c>
       <c r="E43">
-        <v>0.004330050353099794</v>
+        <v>0.5421802683656372</v>
       </c>
       <c r="F43">
-        <v>0.004437834041805719</v>
+        <v>0.7666912028233126</v>
       </c>
       <c r="G43">
-        <v>0.003906063515931196</v>
+        <v>0.9168564593717587</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1386,22 +1386,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.7623991718355293</v>
+        <v>-0.004401996676109785</v>
       </c>
       <c r="C44">
-        <v>0.3405202289594933</v>
+        <v>0.003114512598028095</v>
       </c>
       <c r="D44">
-        <v>0.2466058641173039</v>
+        <v>0.003646759894652712</v>
       </c>
       <c r="E44">
-        <v>0.6891755155370415</v>
+        <v>0.004563292028792065</v>
       </c>
       <c r="F44">
-        <v>0.794016192245606</v>
+        <v>0.004633613353781352</v>
       </c>
       <c r="G44">
-        <v>0.6367418494646854</v>
+        <v>0.004481998707375476</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1409,22 +1409,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.7572354132745009</v>
+        <v>-0.6930010149052419</v>
       </c>
       <c r="C45">
-        <v>0.210827057466782</v>
+        <v>0.6202680692354906</v>
       </c>
       <c r="D45">
-        <v>0.3788911987559481</v>
+        <v>-0.02224276815435382</v>
       </c>
       <c r="E45">
-        <v>0.8183548569849475</v>
+        <v>0.8739008171998076</v>
       </c>
       <c r="F45">
-        <v>0.4292119764732719</v>
+        <v>0.4150716586738052</v>
       </c>
       <c r="G45">
-        <v>0.7311603580562132</v>
+        <v>0.797865133887812</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1432,22 +1432,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.003982402036003929</v>
+        <v>-0.5632507979376792</v>
       </c>
       <c r="C46">
-        <v>0.002253684972251725</v>
+        <v>0.1445928480649639</v>
       </c>
       <c r="D46">
-        <v>0.003793288717714471</v>
+        <v>0.2874899916536299</v>
       </c>
       <c r="E46">
-        <v>0.003245094563322311</v>
+        <v>0.6646900056560078</v>
       </c>
       <c r="F46">
-        <v>0.004665088325824033</v>
+        <v>0.2820221295101919</v>
       </c>
       <c r="G46">
-        <v>0.004022073534414698</v>
+        <v>0.8420165445853124</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1455,22 +1455,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.4988523184032824</v>
+        <v>-0.005843258842458094</v>
       </c>
       <c r="C47">
-        <v>0.2532497374038049</v>
+        <v>0.002837057777140844</v>
       </c>
       <c r="D47">
-        <v>0.2115473941288525</v>
+        <v>0.004703307221570983</v>
       </c>
       <c r="E47">
-        <v>0.6501345211196464</v>
+        <v>0.005615661476308475</v>
       </c>
       <c r="F47">
-        <v>0.4297179064947335</v>
+        <v>0.005467619534564008</v>
       </c>
       <c r="G47">
-        <v>0.605915542083475</v>
+        <v>0.004652236688310006</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1478,22 +1478,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.6805389725630154</v>
+        <v>-0.7913202746948136</v>
       </c>
       <c r="C48">
-        <v>0.5498758121543988</v>
+        <v>0.4063696526418611</v>
       </c>
       <c r="D48">
-        <v>-0.1061639841592257</v>
+        <v>0.05548871272457288</v>
       </c>
       <c r="E48">
-        <v>0.9306886908130951</v>
+        <v>0.9141092294772353</v>
       </c>
       <c r="F48">
-        <v>0.6187055173220317</v>
+        <v>0.5123744801574348</v>
       </c>
       <c r="G48">
-        <v>0.5972319122811894</v>
+        <v>0.8032601845711123</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1501,22 +1501,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.004230665605660652</v>
+        <v>-0.5980735364724956</v>
       </c>
       <c r="C49">
-        <v>0.002473696714871638</v>
+        <v>0.1100331154819733</v>
       </c>
       <c r="D49">
-        <v>0.003589700895144324</v>
+        <v>0.1712380734636124</v>
       </c>
       <c r="E49">
-        <v>0.004066930895482709</v>
+        <v>0.5955995819047291</v>
       </c>
       <c r="F49">
-        <v>0.004458973896297988</v>
+        <v>0.7103452528666412</v>
       </c>
       <c r="G49">
-        <v>0.004083606519565522</v>
+        <v>0.6028496294217601</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1524,22 +1524,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.5334066307696532</v>
+        <v>-0.4320132453656134</v>
       </c>
       <c r="C50">
-        <v>0.2212434968112844</v>
+        <v>0.2207906910231513</v>
       </c>
       <c r="D50">
-        <v>0.4348798430255805</v>
+        <v>0.2297077321846726</v>
       </c>
       <c r="E50">
-        <v>0.7574786721452077</v>
+        <v>0.6547532560454179</v>
       </c>
       <c r="F50">
-        <v>0.3189236376155805</v>
+        <v>0.1331054709811524</v>
       </c>
       <c r="G50">
-        <v>0.5011938618386466</v>
+        <v>0.5478989984762872</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1547,22 +1547,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.5170037375315371</v>
+        <v>-0.03867613236986506</v>
       </c>
       <c r="C51">
-        <v>0.3340023158570531</v>
+        <v>0.02720911302177307</v>
       </c>
       <c r="D51">
-        <v>0.2670365107245576</v>
+        <v>0.03137052012201693</v>
       </c>
       <c r="E51">
-        <v>0.4874499340142534</v>
+        <v>0.0388435407532805</v>
       </c>
       <c r="F51">
-        <v>0.4904622062952314</v>
+        <v>0.04386746045796911</v>
       </c>
       <c r="G51">
-        <v>0.4618810601752938</v>
+        <v>0.03992561948283833</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1570,22 +1570,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.7736828961983385</v>
+        <v>-0.5592656672098802</v>
       </c>
       <c r="C52">
-        <v>0.2724732026965238</v>
+        <v>0.4077114770006793</v>
       </c>
       <c r="D52">
-        <v>0.03311823359507147</v>
+        <v>0.03738104089659999</v>
       </c>
       <c r="E52">
-        <v>0.7266317750844719</v>
+        <v>0.7829247379245298</v>
       </c>
       <c r="F52">
-        <v>0.6378615051131479</v>
+        <v>0.515974463387745</v>
       </c>
       <c r="G52">
-        <v>0.9003657880518223</v>
+        <v>0.5018448202607765</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1593,22 +1593,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.003330747525224025</v>
+        <v>-0.7812169735648495</v>
       </c>
       <c r="C53">
-        <v>0.0021654603100207</v>
+        <v>0.4612632358838329</v>
       </c>
       <c r="D53">
-        <v>0.003065560209044275</v>
+        <v>0.04748251341723484</v>
       </c>
       <c r="E53">
-        <v>0.004213545125533582</v>
+        <v>0.9246297989897619</v>
       </c>
       <c r="F53">
-        <v>0.003711533458448115</v>
+        <v>0.2315552688767586</v>
       </c>
       <c r="G53">
-        <v>0.003320880226406009</v>
+        <v>0.9648081553983924</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1616,22 +1616,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.3987994035072929</v>
+        <v>-0.6156566707094059</v>
       </c>
       <c r="C54">
-        <v>0.1555054104832799</v>
+        <v>0.2147118917805172</v>
       </c>
       <c r="D54">
-        <v>0.3087521701869429</v>
+        <v>0.01843879583216335</v>
       </c>
       <c r="E54">
-        <v>0.4184039598725041</v>
+        <v>0.7836140774174726</v>
       </c>
       <c r="F54">
-        <v>0.3539710935292699</v>
+        <v>0.7433845825766739</v>
       </c>
       <c r="G54">
-        <v>0.4171937437414705</v>
+        <v>0.4757339155030108</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1639,22 +1639,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.003906507485075612</v>
+        <v>-0.553703123287383</v>
       </c>
       <c r="C55">
-        <v>0.002752792597953333</v>
+        <v>0.1398655561422461</v>
       </c>
       <c r="D55">
-        <v>0.003543096296220591</v>
+        <v>0.2646178711391103</v>
       </c>
       <c r="E55">
-        <v>0.003572851260762823</v>
+        <v>0.5889903468149276</v>
       </c>
       <c r="F55">
-        <v>0.004178532735377208</v>
+        <v>0.6174173133213201</v>
       </c>
       <c r="G55">
-        <v>0.004031946391090229</v>
+        <v>0.3849758193156904</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1662,22 +1662,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.004513261571414499</v>
+        <v>-0.004754023449734596</v>
       </c>
       <c r="C56">
-        <v>0.002544561149168992</v>
+        <v>0.003004944549549623</v>
       </c>
       <c r="D56">
-        <v>0.004131782856653306</v>
+        <v>0.003843498975857253</v>
       </c>
       <c r="E56">
-        <v>0.004186204733691568</v>
+        <v>0.004540170789901829</v>
       </c>
       <c r="F56">
-        <v>0.0043483783724822</v>
+        <v>0.005156753326498704</v>
       </c>
       <c r="G56">
-        <v>0.004116824666369367</v>
+        <v>0.00460213532580451</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1685,22 +1685,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.5782372153395514</v>
+        <v>-0.0047632289999092</v>
       </c>
       <c r="C57">
-        <v>0.4742383160788236</v>
+        <v>0.003555341509935083</v>
       </c>
       <c r="D57">
-        <v>0.168230802936923</v>
+        <v>0.003703562611874915</v>
       </c>
       <c r="E57">
-        <v>0.6930110110968289</v>
+        <v>0.00479227728531013</v>
       </c>
       <c r="F57">
-        <v>0.5046492314261551</v>
+        <v>0.004510134405096486</v>
       </c>
       <c r="G57">
-        <v>0.5537491938064784</v>
+        <v>0.004758377531169577</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1708,22 +1708,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.5946607795110437</v>
+        <v>-0.567371693574945</v>
       </c>
       <c r="C58">
-        <v>0.4361836034305387</v>
+        <v>0.1133823160410994</v>
       </c>
       <c r="D58">
-        <v>0.159671623371189</v>
+        <v>0.2011467926385397</v>
       </c>
       <c r="E58">
-        <v>0.7553536527955447</v>
+        <v>0.8169442212601733</v>
       </c>
       <c r="F58">
-        <v>0.4173347917475418</v>
+        <v>0.08418036991777059</v>
       </c>
       <c r="G58">
-        <v>0.6568503741931008</v>
+        <v>0.9898069060586813</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1731,22 +1731,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.6895351748145001</v>
+        <v>-0.004679795997839097</v>
       </c>
       <c r="C59">
-        <v>0.4192959373685716</v>
+        <v>0.00325971732229401</v>
       </c>
       <c r="D59">
-        <v>-0.1843888235674072</v>
+        <v>0.004122456311444104</v>
       </c>
       <c r="E59">
-        <v>0.5361341335521762</v>
+        <v>0.004193335787741278</v>
       </c>
       <c r="F59">
-        <v>0.8618459630505253</v>
+        <v>0.004943654476050768</v>
       </c>
       <c r="G59">
-        <v>0.7767722447002712</v>
+        <v>0.004594451373995063</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1754,22 +1754,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.5814262427070739</v>
+        <v>-0.6061839178559902</v>
       </c>
       <c r="C60">
-        <v>0.164485037628063</v>
+        <v>0.2445041783160276</v>
       </c>
       <c r="D60">
-        <v>0.2186627533902538</v>
+        <v>0.08395620535548376</v>
       </c>
       <c r="E60">
-        <v>0.644515305843003</v>
+        <v>0.9503655192762083</v>
       </c>
       <c r="F60">
-        <v>0.4814800726803662</v>
+        <v>0.3803956671040392</v>
       </c>
       <c r="G60">
-        <v>0.8064090496242691</v>
+        <v>0.716963473896558</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1777,22 +1777,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.2396720548982658</v>
+        <v>-0.6833604168121137</v>
       </c>
       <c r="C61">
-        <v>0.1329182341959869</v>
+        <v>0.1204153458791819</v>
       </c>
       <c r="D61">
-        <v>0.2010634154000468</v>
+        <v>0.2736809622749924</v>
       </c>
       <c r="E61">
-        <v>0.2066840403683703</v>
+        <v>0.9030889617821871</v>
       </c>
       <c r="F61">
-        <v>0.2140942689948929</v>
+        <v>0.3826862280121804</v>
       </c>
       <c r="G61">
-        <v>0.2188321354522292</v>
+        <v>0.7624441545273991</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1800,22 +1800,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.559187481279114</v>
+        <v>-0.5422717995943324</v>
       </c>
       <c r="C62">
-        <v>0.3568003481604832</v>
+        <v>0.4136049565662531</v>
       </c>
       <c r="D62">
-        <v>0.1808378979951863</v>
+        <v>0.1947673161773275</v>
       </c>
       <c r="E62">
-        <v>0.6547493374845003</v>
+        <v>0.5945472756033693</v>
       </c>
       <c r="F62">
-        <v>0.440321165057778</v>
+        <v>0.3718676617175997</v>
       </c>
       <c r="G62">
-        <v>0.5067315969100339</v>
+        <v>0.692704313159847</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1823,22 +1823,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.184496107292161</v>
+        <v>-0.7164156253649615</v>
       </c>
       <c r="C63">
-        <v>0.1270155599845253</v>
+        <v>0.2644649536783689</v>
       </c>
       <c r="D63">
-        <v>0.1353034993384024</v>
+        <v>0.2283736632666736</v>
       </c>
       <c r="E63">
-        <v>0.2123315395178811</v>
+        <v>0.7670714819321099</v>
       </c>
       <c r="F63">
-        <v>0.2065800375565911</v>
+        <v>0.4966954942428936</v>
       </c>
       <c r="G63">
-        <v>0.1836030308405139</v>
+        <v>0.728113858042552</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1846,22 +1846,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.004027938947818042</v>
+        <v>-0.2413013047927489</v>
       </c>
       <c r="C64">
-        <v>0.002857670987288732</v>
+        <v>0.1681086436579046</v>
       </c>
       <c r="D64">
-        <v>0.003697293088168222</v>
+        <v>0.1660048450744049</v>
       </c>
       <c r="E64">
-        <v>0.003526127101522249</v>
+        <v>0.2619013951750864</v>
       </c>
       <c r="F64">
-        <v>0.00409193761053077</v>
+        <v>0.2089816886587057</v>
       </c>
       <c r="G64">
-        <v>0.004204405451803866</v>
+        <v>0.1994713382158637</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1869,22 +1869,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.2035952272861494</v>
+        <v>-0.005113561976494688</v>
       </c>
       <c r="C65">
-        <v>0.1562697712407522</v>
+        <v>0.003413192274193574</v>
       </c>
       <c r="D65">
-        <v>0.1430852181642307</v>
+        <v>0.004311995264425046</v>
       </c>
       <c r="E65">
-        <v>0.1862413320096883</v>
+        <v>0.004246098513382575</v>
       </c>
       <c r="F65">
-        <v>0.1806953855590289</v>
+        <v>0.005139137214589681</v>
       </c>
       <c r="G65">
-        <v>0.2279996690406805</v>
+        <v>0.004950005972812479</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1892,22 +1892,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.004266205002864363</v>
+        <v>-0.7296530197826122</v>
       </c>
       <c r="C66">
-        <v>0.002920432216225023</v>
+        <v>0.3063546627274526</v>
       </c>
       <c r="D66">
-        <v>0.004029477438836132</v>
+        <v>0.07817106749917724</v>
       </c>
       <c r="E66">
-        <v>0.00370305899512406</v>
+        <v>0.7932338876302605</v>
       </c>
       <c r="F66">
-        <v>0.004555108875595386</v>
+        <v>0.8031394238238028</v>
       </c>
       <c r="G66">
-        <v>0.003678431083445653</v>
+        <v>0.5849553653453464</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1915,22 +1915,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.7562059805404612</v>
+        <v>-0.7559948673763265</v>
       </c>
       <c r="C67">
-        <v>0.3268926590328229</v>
+        <v>0.3031503287838743</v>
       </c>
       <c r="D67">
-        <v>0.1100734412174429</v>
+        <v>0.3394307031445269</v>
       </c>
       <c r="E67">
-        <v>0.7250730457776254</v>
+        <v>0.7822608820121086</v>
       </c>
       <c r="F67">
-        <v>0.6514011089277236</v>
+        <v>0.4442445585520473</v>
       </c>
       <c r="G67">
-        <v>0.8978843741916871</v>
+        <v>0.7720869309711085</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1938,22 +1938,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.004686198947934463</v>
+        <v>-0.2235638067510362</v>
       </c>
       <c r="C68">
-        <v>0.002907353150916829</v>
+        <v>0.1209444511559895</v>
       </c>
       <c r="D68">
-        <v>0.004089622335046543</v>
+        <v>0.1539507456062467</v>
       </c>
       <c r="E68">
-        <v>0.004331518543526061</v>
+        <v>0.225316591552017</v>
       </c>
       <c r="F68">
-        <v>0.004327190416251147</v>
+        <v>0.2492805768801135</v>
       </c>
       <c r="G68">
-        <v>0.00414790115679912</v>
+        <v>0.2001929980915389</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1961,22 +1961,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.5936246178560102</v>
+        <v>-0.00500875791529702</v>
       </c>
       <c r="C69">
-        <v>0.2090978808782687</v>
+        <v>0.002881455927090971</v>
       </c>
       <c r="D69">
-        <v>0.3201403094847478</v>
+        <v>0.004341524026652545</v>
       </c>
       <c r="E69">
-        <v>0.7657439003219579</v>
+        <v>0.004756376911614867</v>
       </c>
       <c r="F69">
-        <v>0.5899918590136221</v>
+        <v>0.004900054871326614</v>
       </c>
       <c r="G69">
-        <v>0.4483593442679226</v>
+        <v>0.004821216693197954</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1984,22 +1984,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.7817661090292128</v>
+        <v>-0.5212638685245814</v>
       </c>
       <c r="C70">
-        <v>0.4291949416249943</v>
+        <v>0.3547096046445669</v>
       </c>
       <c r="D70">
-        <v>0.1047032134519188</v>
+        <v>0.2657802905657703</v>
       </c>
       <c r="E70">
-        <v>0.994194126406073</v>
+        <v>0.6451371400139276</v>
       </c>
       <c r="F70">
-        <v>0.5716080172430655</v>
+        <v>0.2144114810099952</v>
       </c>
       <c r="G70">
-        <v>0.6264569742273046</v>
+        <v>0.5798417202523669</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2007,22 +2007,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.004651262708033205</v>
+        <v>-0.7140726165267328</v>
       </c>
       <c r="C71">
-        <v>0.002793202874014454</v>
+        <v>0.2567066682704476</v>
       </c>
       <c r="D71">
-        <v>0.004064354780604873</v>
+        <v>0.1113770863056998</v>
       </c>
       <c r="E71">
-        <v>0.004038794547013883</v>
+        <v>0.6053554576711915</v>
       </c>
       <c r="F71">
-        <v>0.004373003260687332</v>
+        <v>0.5807546770521353</v>
       </c>
       <c r="G71">
-        <v>0.004421666015390949</v>
+        <v>0.9792186453900775</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2030,22 +2030,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.003314560568400378</v>
+        <v>-0.006025030361529626</v>
       </c>
       <c r="C72">
-        <v>0.002255548125014568</v>
+        <v>0.003287777229599643</v>
       </c>
       <c r="D72">
-        <v>0.003475527430339155</v>
+        <v>0.004642895236025939</v>
       </c>
       <c r="E72">
-        <v>0.003045624962701521</v>
+        <v>0.005000505971504914</v>
       </c>
       <c r="F72">
-        <v>0.003864615889069229</v>
+        <v>0.005631073651986726</v>
       </c>
       <c r="G72">
-        <v>0.003892032316742355</v>
+        <v>0.005262244063362042</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2053,22 +2053,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.003609682446267889</v>
+        <v>-0.005959463041450673</v>
       </c>
       <c r="C73">
-        <v>0.002483921065266021</v>
+        <v>0.003324938506657715</v>
       </c>
       <c r="D73">
-        <v>0.003229783714577463</v>
+        <v>0.004541923614366172</v>
       </c>
       <c r="E73">
-        <v>0.003292830827076904</v>
+        <v>0.00535952205196799</v>
       </c>
       <c r="F73">
-        <v>0.004237925879700915</v>
+        <v>0.00534525784329753</v>
       </c>
       <c r="G73">
-        <v>0.004013590869608792</v>
+        <v>0.00514887527473377</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2076,22 +2076,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.3889170159454047</v>
+        <v>-0.004782263413033758</v>
       </c>
       <c r="C74">
-        <v>0.2460069603149483</v>
+        <v>0.002710395833923866</v>
       </c>
       <c r="D74">
-        <v>0.2850765662008979</v>
+        <v>0.003854169318999936</v>
       </c>
       <c r="E74">
-        <v>0.5086497247537807</v>
+        <v>0.004989161914842692</v>
       </c>
       <c r="F74">
-        <v>0.3909238200031194</v>
+        <v>0.005010561115139233</v>
       </c>
       <c r="G74">
-        <v>0.3302663444431092</v>
+        <v>0.004523651071718315</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2099,22 +2099,22 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.3430702832253486</v>
+        <v>-0.4868244762320666</v>
       </c>
       <c r="C75">
-        <v>0.1587012961015075</v>
+        <v>0.3586805635052896</v>
       </c>
       <c r="D75">
-        <v>0.2310230054315805</v>
+        <v>-0.05952004136147178</v>
       </c>
       <c r="E75">
-        <v>0.4942553567114077</v>
+        <v>0.4880087352755546</v>
       </c>
       <c r="F75">
-        <v>0.3557771307839411</v>
+        <v>0.3814508932858443</v>
       </c>
       <c r="G75">
-        <v>0.3531252087320417</v>
+        <v>0.8982623704230724</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2122,22 +2122,22 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.530147834360687</v>
+        <v>-0.8483967292433886</v>
       </c>
       <c r="C76">
-        <v>0.4131822735022269</v>
+        <v>0.4465747964469667</v>
       </c>
       <c r="D76">
-        <v>0.227607469062683</v>
+        <v>-0.07606346310552037</v>
       </c>
       <c r="E76">
-        <v>0.5339490775468494</v>
+        <v>1.032597058061982</v>
       </c>
       <c r="F76">
-        <v>0.4195920585940122</v>
+        <v>0.6996550456272097</v>
       </c>
       <c r="G76">
-        <v>0.4508020659548082</v>
+        <v>0.8219069407133133</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2145,22 +2145,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.00303140771276086</v>
+        <v>-0.2309821920207593</v>
       </c>
       <c r="C77">
-        <v>0.001744120227218251</v>
+        <v>0.1328125090321419</v>
       </c>
       <c r="D77">
-        <v>0.003598289840862716</v>
+        <v>0.1666236355126823</v>
       </c>
       <c r="E77">
-        <v>0.003868162007083772</v>
+        <v>0.2343481505565991</v>
       </c>
       <c r="F77">
-        <v>0.003467972783721821</v>
+        <v>0.2354051246743781</v>
       </c>
       <c r="G77">
-        <v>0.002942305164565204</v>
+        <v>0.2098237761962478</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2168,22 +2168,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.004915900185397609</v>
+        <v>-0.4743616567460738</v>
       </c>
       <c r="C78">
-        <v>0.002364606073182145</v>
+        <v>0.3166539530362441</v>
       </c>
       <c r="D78">
-        <v>0.003995137761148831</v>
+        <v>0.2376490496273237</v>
       </c>
       <c r="E78">
-        <v>0.004557592509831812</v>
+        <v>0.486292370861487</v>
       </c>
       <c r="F78">
-        <v>0.004897694306149637</v>
+        <v>0.4090214250453144</v>
       </c>
       <c r="G78">
-        <v>0.004182205411170803</v>
+        <v>0.3814590831777777</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2191,22 +2191,22 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.484589142031173</v>
+        <v>-0.5565628067977904</v>
       </c>
       <c r="C79">
-        <v>0.28377701669156</v>
+        <v>0.04376343436833344</v>
       </c>
       <c r="D79">
-        <v>0.2873415821639505</v>
+        <v>0.2034345078570363</v>
       </c>
       <c r="E79">
-        <v>0.5663125249743909</v>
+        <v>0.6131779869627134</v>
       </c>
       <c r="F79">
-        <v>0.490725637190647</v>
+        <v>0.5338939099176737</v>
       </c>
       <c r="G79">
-        <v>0.3454942453235555</v>
+        <v>0.673766368455473</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2214,22 +2214,22 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.664053022867918</v>
+        <v>-0.5341796655852067</v>
       </c>
       <c r="C80">
-        <v>0.3279837352057172</v>
+        <v>0.2466922170943822</v>
       </c>
       <c r="D80">
-        <v>0.2793904614191322</v>
+        <v>0.2021556404106569</v>
       </c>
       <c r="E80">
-        <v>0.7162474888098276</v>
+        <v>0.6216466404663183</v>
       </c>
       <c r="F80">
-        <v>0.4833839253136809</v>
+        <v>0.3957235326036075</v>
       </c>
       <c r="G80">
-        <v>0.706344734375962</v>
+        <v>0.5642690666571282</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2237,22 +2237,22 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.1991169848537573</v>
+        <v>-0.5094825042681774</v>
       </c>
       <c r="C81">
-        <v>0.1168473057402867</v>
+        <v>0.2590777363153731</v>
       </c>
       <c r="D81">
-        <v>0.1642429688422001</v>
+        <v>0.2800231645761649</v>
       </c>
       <c r="E81">
-        <v>0.1886702407177754</v>
+        <v>0.5853457769183745</v>
       </c>
       <c r="F81">
-        <v>0.1967346226104485</v>
+        <v>0.3265713422476278</v>
       </c>
       <c r="G81">
-        <v>0.2119212768488389</v>
+        <v>0.570272389342801</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2260,22 +2260,22 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.7890860420699675</v>
+        <v>-0.04605586881117249</v>
       </c>
       <c r="C82">
-        <v>0.3399468542612558</v>
+        <v>0.03085543808391981</v>
       </c>
       <c r="D82">
-        <v>0.09680068616230038</v>
+        <v>0.03757453630718924</v>
       </c>
       <c r="E82">
-        <v>0.7635621230687581</v>
+        <v>0.04356557601064531</v>
       </c>
       <c r="F82">
-        <v>0.7736170943401106</v>
+        <v>0.04319696810872019</v>
       </c>
       <c r="G82">
-        <v>0.7728285224257565</v>
+        <v>0.04249363394266905</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2283,22 +2283,22 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.4884884117380381</v>
+        <v>-0.8684339627873278</v>
       </c>
       <c r="C83">
-        <v>0.2067476068884933</v>
+        <v>0.2960703258139163</v>
       </c>
       <c r="D83">
-        <v>0.4097647296635876</v>
+        <v>0.2265667967198258</v>
       </c>
       <c r="E83">
-        <v>0.6375467014364606</v>
+        <v>0.8175803993313498</v>
       </c>
       <c r="F83">
-        <v>0.2535957847716107</v>
+        <v>0.5826034661811464</v>
       </c>
       <c r="G83">
-        <v>0.6109447152057885</v>
+        <v>0.8911131332348365</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2306,22 +2306,22 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.5256309193395707</v>
+        <v>-0.6722251914032928</v>
       </c>
       <c r="C84">
-        <v>0.3430212757950752</v>
+        <v>0.2136348376351577</v>
       </c>
       <c r="D84">
-        <v>0.145848308166732</v>
+        <v>0.118463965958957</v>
       </c>
       <c r="E84">
-        <v>0.6713006149511801</v>
+        <v>0.9446929867800827</v>
       </c>
       <c r="F84">
-        <v>0.5273565881841804</v>
+        <v>0.5139510662794374</v>
       </c>
       <c r="G84">
-        <v>0.5183213237441896</v>
+        <v>0.7094005828397076</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2329,22 +2329,22 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.5333635765081827</v>
+        <v>-0.5374400214835967</v>
       </c>
       <c r="C85">
-        <v>0.3552499250644556</v>
+        <v>0.223038024947544</v>
       </c>
       <c r="D85">
-        <v>0.4959696083664101</v>
+        <v>0.1178470813453828</v>
       </c>
       <c r="E85">
-        <v>0.6145243255541064</v>
+        <v>0.6241052655182662</v>
       </c>
       <c r="F85">
-        <v>0.1374054397027697</v>
+        <v>0.4671424960488916</v>
       </c>
       <c r="G85">
-        <v>0.694548236238375</v>
+        <v>0.7010395587298175</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2352,22 +2352,22 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.1986760499234858</v>
+        <v>-0.4181864281962629</v>
       </c>
       <c r="C86">
-        <v>0.1371893355143779</v>
+        <v>0.2307056119296753</v>
       </c>
       <c r="D86">
-        <v>0.1543739537726795</v>
+        <v>0.1920941760751665</v>
       </c>
       <c r="E86">
-        <v>0.2191713325325239</v>
+        <v>0.534558297299241</v>
       </c>
       <c r="F86">
-        <v>0.1969492518572636</v>
+        <v>0.3571752019531084</v>
       </c>
       <c r="G86">
-        <v>0.1761920186911563</v>
+        <v>0.3808508185910119</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2375,22 +2375,22 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.6403490871153409</v>
+        <v>-0.05047715635268791</v>
       </c>
       <c r="C87">
-        <v>0.2996499253988099</v>
+        <v>0.02604111172422943</v>
       </c>
       <c r="D87">
-        <v>0.191380690504537</v>
+        <v>0.04340202906326612</v>
       </c>
       <c r="E87">
-        <v>0.7364313429445447</v>
+        <v>0.04377129747144731</v>
       </c>
       <c r="F87">
-        <v>0.3524299557679735</v>
+        <v>0.04563690804377857</v>
       </c>
       <c r="G87">
-        <v>0.7971477181879615</v>
+        <v>0.04606815517668747</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2398,22 +2398,22 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.6995322277317534</v>
+        <v>-0.00478357558285908</v>
       </c>
       <c r="C88">
-        <v>0.4491255767723112</v>
+        <v>0.003033963113212236</v>
       </c>
       <c r="D88">
-        <v>0.4505133746890768</v>
+        <v>0.0045419408713624</v>
       </c>
       <c r="E88">
-        <v>0.7208650841930729</v>
+        <v>0.004499252321190541</v>
       </c>
       <c r="F88">
-        <v>0.2849647347406442</v>
+        <v>0.004777437642680074</v>
       </c>
       <c r="G88">
-        <v>0.7279090135289354</v>
+        <v>0.004444722816607963</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2421,22 +2421,22 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.5188674020345566</v>
+        <v>-0.5669136257900685</v>
       </c>
       <c r="C89">
-        <v>0.3051673932052071</v>
+        <v>0.08309720851634175</v>
       </c>
       <c r="D89">
-        <v>0.2548329908648567</v>
+        <v>0.1699657359342678</v>
       </c>
       <c r="E89">
-        <v>0.3502942712901643</v>
+        <v>0.6020102812927437</v>
       </c>
       <c r="F89">
-        <v>0.5836274854014037</v>
+        <v>0.5441518044001507</v>
       </c>
       <c r="G89">
-        <v>0.7085122295285003</v>
+        <v>0.6039646324838189</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2444,22 +2444,22 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.1874430661994971</v>
+        <v>-0.6256343770485771</v>
       </c>
       <c r="C90">
-        <v>0.1216019894485314</v>
+        <v>0.3902018130701704</v>
       </c>
       <c r="D90">
-        <v>0.1780906199476406</v>
+        <v>0.08373597308963428</v>
       </c>
       <c r="E90">
-        <v>0.1737496664613414</v>
+        <v>0.4808377357258694</v>
       </c>
       <c r="F90">
-        <v>0.2043830350185314</v>
+        <v>0.7023778223142901</v>
       </c>
       <c r="G90">
-        <v>0.1852026619246103</v>
+        <v>0.6460245941615625</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2467,22 +2467,22 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.7297195491371955</v>
+        <v>-0.5921336660057974</v>
       </c>
       <c r="C91">
-        <v>0.4023336211161644</v>
+        <v>0.3722624012145491</v>
       </c>
       <c r="D91">
-        <v>0.2635454296305243</v>
+        <v>0.01069903279174489</v>
       </c>
       <c r="E91">
-        <v>0.8403974655202707</v>
+        <v>0.8794645744586028</v>
       </c>
       <c r="F91">
-        <v>0.6403626612424645</v>
+        <v>0.2588300870945888</v>
       </c>
       <c r="G91">
-        <v>0.5750545380246102</v>
+        <v>0.8303640261904259</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2490,22 +2490,22 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.6523015334335903</v>
+        <v>-0.5856494047085006</v>
       </c>
       <c r="C92">
-        <v>0.4111523513242475</v>
+        <v>0.2767388110007749</v>
       </c>
       <c r="D92">
-        <v>0.1279939047725429</v>
+        <v>0.09262917417628284</v>
       </c>
       <c r="E92">
-        <v>0.6555603154818551</v>
+        <v>0.6259764244198531</v>
       </c>
       <c r="F92">
-        <v>0.5434760479656445</v>
+        <v>0.6974427078094876</v>
       </c>
       <c r="G92">
-        <v>0.6948896434594345</v>
+        <v>0.5447044007276369</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2513,22 +2513,22 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.4107828455993968</v>
+        <v>-0.6804230540006964</v>
       </c>
       <c r="C93">
-        <v>0.2400584103190845</v>
+        <v>0.1995131658175502</v>
       </c>
       <c r="D93">
-        <v>0.1459781933406751</v>
+        <v>0.1274066808666738</v>
       </c>
       <c r="E93">
-        <v>0.6027237364354586</v>
+        <v>0.7468060939273763</v>
       </c>
       <c r="F93">
-        <v>0.4534688081814278</v>
+        <v>0.7472613819665861</v>
       </c>
       <c r="G93">
-        <v>0.3545895007333581</v>
+        <v>0.6893567055431717</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2536,22 +2536,22 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.00349422312523135</v>
+        <v>-0.4745119879158465</v>
       </c>
       <c r="C94">
-        <v>0.002552664362661758</v>
+        <v>0.2260425754319529</v>
       </c>
       <c r="D94">
-        <v>0.00309424552783972</v>
+        <v>0.2917526376839034</v>
       </c>
       <c r="E94">
-        <v>0.003500813782754963</v>
+        <v>0.5481770090285867</v>
       </c>
       <c r="F94">
-        <v>0.003914841245846423</v>
+        <v>0.4111308129070153</v>
       </c>
       <c r="G94">
-        <v>0.003992196115371315</v>
+        <v>0.3428032591864901</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2559,22 +2559,22 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.004319457803170793</v>
+        <v>-0.4965162261544068</v>
       </c>
       <c r="C95">
-        <v>0.002437373501437422</v>
+        <v>0.1630113872869069</v>
       </c>
       <c r="D95">
-        <v>0.004163652644037935</v>
+        <v>0.315530830987681</v>
       </c>
       <c r="E95">
-        <v>0.003820430865670235</v>
+        <v>0.473326034803783</v>
       </c>
       <c r="F95">
-        <v>0.004199819366086161</v>
+        <v>0.4220401601797387</v>
       </c>
       <c r="G95">
-        <v>0.004250653011077748</v>
+        <v>0.4333802079426948</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2582,22 +2582,22 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.2355029031912364</v>
+        <v>-0.005222626496809961</v>
       </c>
       <c r="C96">
-        <v>0.1369434318954962</v>
+        <v>0.003128079572190422</v>
       </c>
       <c r="D96">
-        <v>0.1662995202368378</v>
+        <v>0.004250106708801712</v>
       </c>
       <c r="E96">
-        <v>0.219880297991678</v>
+        <v>0.005167730068976146</v>
       </c>
       <c r="F96">
-        <v>0.2163193362781282</v>
+        <v>0.005035928326332952</v>
       </c>
       <c r="G96">
-        <v>0.2065780188369416</v>
+        <v>0.004618996017736385</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2605,22 +2605,22 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.5645948465424969</v>
+        <v>-0.6051856838266642</v>
       </c>
       <c r="C97">
-        <v>0.3938701443753064</v>
+        <v>0.1720360272350646</v>
       </c>
       <c r="D97">
-        <v>0.1604062729348269</v>
+        <v>0.2267667469473801</v>
       </c>
       <c r="E97">
-        <v>0.8110395194562603</v>
+        <v>0.6510036734216101</v>
       </c>
       <c r="F97">
-        <v>0.4935573685789784</v>
+        <v>0.5704390758100828</v>
       </c>
       <c r="G97">
-        <v>0.4069824298720363</v>
+        <v>0.6804314407939931</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2628,22 +2628,22 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.5176596392480677</v>
+        <v>-0.6038384771619829</v>
       </c>
       <c r="C98">
-        <v>0.3008726872055178</v>
+        <v>0.4259708799807203</v>
       </c>
       <c r="D98">
-        <v>0.1173688231344685</v>
+        <v>0.2355536373725314</v>
       </c>
       <c r="E98">
-        <v>0.7821152402458218</v>
+        <v>0.5815805613728371</v>
       </c>
       <c r="F98">
-        <v>0.437895332464299</v>
+        <v>0.4983448838125538</v>
       </c>
       <c r="G98">
-        <v>0.5107593166159194</v>
+        <v>0.4840759559254332</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2651,22 +2651,22 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.00473162508306597</v>
+        <v>-0.5849056025822079</v>
       </c>
       <c r="C99">
-        <v>0.002323642230329734</v>
+        <v>0.2526016751018246</v>
       </c>
       <c r="D99">
-        <v>0.003956742031136148</v>
+        <v>0.1728686344648497</v>
       </c>
       <c r="E99">
-        <v>0.004197972974331242</v>
+        <v>0.6616967657161787</v>
       </c>
       <c r="F99">
-        <v>0.004631575988707856</v>
+        <v>0.3926921034939809</v>
       </c>
       <c r="G99">
-        <v>0.004528278704618401</v>
+        <v>0.6305692613535072</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2674,22 +2674,22 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.003611275435224075</v>
+        <v>-0.6392073012841335</v>
       </c>
       <c r="C100">
-        <v>0.002079777183833327</v>
+        <v>0.2000787978952672</v>
       </c>
       <c r="D100">
-        <v>0.003733380212512086</v>
+        <v>0.06972628558845628</v>
       </c>
       <c r="E100">
-        <v>0.003440515375909873</v>
+        <v>0.7106260602699558</v>
       </c>
       <c r="F100">
-        <v>0.004008385788604008</v>
+        <v>0.5874924511680828</v>
       </c>
       <c r="G100">
-        <v>0.003926732525941786</v>
+        <v>0.800430552146653</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2697,22 +2697,22 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.3610270275187921</v>
+        <v>-0.4965528976595902</v>
       </c>
       <c r="C101">
-        <v>0.2818284844878775</v>
+        <v>0.2943757901513883</v>
       </c>
       <c r="D101">
-        <v>0.2052023243505197</v>
+        <v>0.2605587358270523</v>
       </c>
       <c r="E101">
-        <v>0.4275757090998242</v>
+        <v>0.6374568393447829</v>
       </c>
       <c r="F101">
-        <v>0.3575190993153159</v>
+        <v>0.4216883474677647</v>
       </c>
       <c r="G101">
-        <v>0.3229228219993612</v>
+        <v>0.3695899721206254</v>
       </c>
     </row>
   </sheetData>
